--- a/data/trans_orig/P74A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Clase-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6041</v>
+        <v>6288</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00521366496567352</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0168319526847122</v>
+        <v>0.01752071398956053</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5650</v>
+        <v>5624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.004860246355921641</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02821055095653054</v>
+        <v>0.02807809534553822</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -785,19 +785,19 @@
         <v>2845</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7766</v>
+        <v>7684</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005087080708614876</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00158514381381424</v>
+        <v>0.001573991631736968</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01388810479363412</v>
+        <v>0.01374016028941575</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>3866</v>
+        <v>3869</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.002143689272665492</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01077016701659895</v>
+        <v>0.0107806964198892</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -835,19 +835,19 @@
         <v>2751</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8157</v>
+        <v>7136</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01373731060530241</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003983975900785927</v>
+        <v>0.003962019827175155</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04072619853298407</v>
+        <v>0.03562955995035787</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>4</v>
@@ -856,19 +856,19 @@
         <v>3521</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>972</v>
+        <v>811</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8641</v>
+        <v>8488</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006296186912904122</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001737952958467954</v>
+        <v>0.001449701127083495</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01545184385163316</v>
+        <v>0.01517826939811924</v>
       </c>
     </row>
     <row r="6">
@@ -888,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4672</v>
+        <v>5561</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002548471007802145</v>
@@ -897,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01301598551212301</v>
+        <v>0.01549445884892121</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>4605</v>
+        <v>4565</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00163568288556769</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008234399824537705</v>
+        <v>0.008163329241841721</v>
       </c>
     </row>
     <row r="7">
@@ -948,19 +948,19 @@
         <v>153399</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>134602</v>
+        <v>136058</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>171854</v>
+        <v>174308</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4273984505990808</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3750247375341232</v>
+        <v>0.3790830672053988</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4788173382753503</v>
+        <v>0.4856540171347617</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>153399</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>132034</v>
+        <v>132802</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>175413</v>
+        <v>176062</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2743167682986407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2361096799819496</v>
+        <v>0.2374831085869702</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3136827533366147</v>
+        <v>0.3148438157078992</v>
       </c>
     </row>
     <row r="8">
@@ -1011,19 +1011,19 @@
         <v>13817</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7217</v>
+        <v>7348</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>23097</v>
+        <v>24293</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03849543832657762</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02010738234980774</v>
+        <v>0.02047167762666624</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06435227211392665</v>
+        <v>0.06768438493410697</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>18</v>
@@ -1032,19 +1032,19 @@
         <v>18003</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>10947</v>
+        <v>11103</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27960</v>
+        <v>27597</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0898825119184547</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0546540572013756</v>
+        <v>0.05543278908527066</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1395970099278351</v>
+        <v>0.1377823819179465</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>29</v>
@@ -1053,19 +1053,19 @@
         <v>31819</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>21184</v>
+        <v>21414</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44665</v>
+        <v>45024</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05690079207298163</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03788224462263858</v>
+        <v>0.0382934977246386</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.07987229316658283</v>
+        <v>0.08051409572182167</v>
       </c>
     </row>
     <row r="9">
@@ -1129,19 +1129,19 @@
         <v>11576</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5325</v>
+        <v>5404</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20508</v>
+        <v>21579</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03225206029444815</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01483602614689477</v>
+        <v>0.01505653637125916</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05713906715077082</v>
+        <v>0.06012413682099201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1150,19 +1150,19 @@
         <v>2938</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>919</v>
+        <v>924</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7710</v>
+        <v>7783</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01466855016562333</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004589890707885182</v>
+        <v>0.004613175059307341</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03849476319872575</v>
+        <v>0.03885989528888754</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -1171,19 +1171,19 @@
         <v>14514</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8262</v>
+        <v>7652</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24893</v>
+        <v>24070</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02595415886898818</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01477479072603191</v>
+        <v>0.01368425764768793</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04451455449094228</v>
+        <v>0.04304277634761151</v>
       </c>
     </row>
     <row r="11">
@@ -1200,19 +1200,19 @@
         <v>176567</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>159759</v>
+        <v>156757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>196037</v>
+        <v>194499</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4919482255337523</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4451172268748812</v>
+        <v>0.4367522991114638</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5461953254954796</v>
+        <v>0.5419098153676231</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>169</v>
@@ -1221,19 +1221,19 @@
         <v>175625</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>164271</v>
+        <v>164997</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>183640</v>
+        <v>183268</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8768513809546979</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8201609053852792</v>
+        <v>0.8237851396041306</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9168679529464323</v>
+        <v>0.9150108115427207</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>339</v>
@@ -1242,19 +1242,19 @@
         <v>352193</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>329378</v>
+        <v>325360</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>376129</v>
+        <v>373196</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6298093302523028</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5890104921416435</v>
+        <v>0.5818265050675212</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.672613501020215</v>
+        <v>0.6673691994163821</v>
       </c>
     </row>
     <row r="12">
@@ -1349,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5252</v>
+        <v>5342</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.003930343438282323</v>
@@ -1358,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02018425346300279</v>
+        <v>0.02053015827623627</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1370,7 +1370,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5897</v>
+        <v>5849</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004856757754564454</v>
@@ -1379,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02426181159160406</v>
+        <v>0.02406479048512343</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8396</v>
+        <v>6684</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004377762294723853</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01668368135194178</v>
+        <v>0.01328111979555965</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>4676</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1110</v>
+        <v>1019</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>11584</v>
+        <v>11698</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01797034560596502</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.004266327248113823</v>
+        <v>0.003915761950427578</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04451984966335505</v>
+        <v>0.04495570415263889</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1498,19 +1498,19 @@
         <v>4676</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1475</v>
+        <v>1024</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12214</v>
+        <v>11814</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.009291430201087627</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.002930219137499618</v>
+        <v>0.002034852835255783</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0242699562399033</v>
+        <v>0.02347530202903118</v>
       </c>
     </row>
     <row r="16">
@@ -1527,19 +1527,19 @@
         <v>127878</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>112352</v>
+        <v>111852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>145350</v>
+        <v>145566</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4914576189782672</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4317890565020676</v>
+        <v>0.4298649361312425</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5586061033507635</v>
+        <v>0.5594331812009207</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1551,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12300</v>
+        <v>11982</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01144917259350719</v>
@@ -1560,7 +1560,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05060866456995493</v>
+        <v>0.04929826273772688</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>129</v>
@@ -1569,19 +1569,19 @@
         <v>130661</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110598</v>
+        <v>112227</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>151071</v>
+        <v>151583</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2596338805178825</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2197660847743745</v>
+        <v>0.223003978288986</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3001911488479305</v>
+        <v>0.3012083775655099</v>
       </c>
     </row>
     <row r="17">
@@ -1598,19 +1598,19 @@
         <v>9103</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4459</v>
+        <v>4476</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>16561</v>
+        <v>16834</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03498353806262618</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01713601708094967</v>
+        <v>0.01720322011876892</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06364487176205051</v>
+        <v>0.06469726079338384</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>13</v>
@@ -1619,19 +1619,19 @@
         <v>14382</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7611</v>
+        <v>8134</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23843</v>
+        <v>24191</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05917450273440002</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.031313837829391</v>
+        <v>0.03346537048284039</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09810018539397682</v>
+        <v>0.09953049856189683</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -1640,19 +1640,19 @@
         <v>23485</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>14972</v>
+        <v>15538</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36380</v>
+        <v>35281</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04666674886737621</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0297512727511682</v>
+        <v>0.03087470992579648</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07229080986375003</v>
+        <v>0.07010640568289526</v>
       </c>
     </row>
     <row r="18">
@@ -1716,19 +1716,19 @@
         <v>11732</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>5639</v>
+        <v>5442</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21710</v>
+        <v>20547</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04508707244968053</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02167191017553617</v>
+        <v>0.02091418398239557</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08343570221705353</v>
+        <v>0.07896461008585927</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7102</v>
+        <v>6704</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0077238242472079</v>
@@ -1749,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02922241823787388</v>
+        <v>0.02758160150157969</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>12</v>
@@ -1758,19 +1758,19 @@
         <v>13609</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>7271</v>
+        <v>7662</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>23808</v>
+        <v>23792</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02704220689667418</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01444762750531878</v>
+        <v>0.01522448363517032</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0473090837971421</v>
+        <v>0.04727733435931449</v>
       </c>
     </row>
     <row r="20">
@@ -1787,19 +1787,19 @@
         <v>105791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>90976</v>
+        <v>90843</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>123045</v>
+        <v>123359</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4065710814651788</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3496342725710425</v>
+        <v>0.3491260178389804</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4728837256254221</v>
+        <v>0.4740876832023211</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>214</v>
@@ -1808,19 +1808,19 @@
         <v>222826</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>210795</v>
+        <v>212402</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>231201</v>
+        <v>230601</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9167957426703205</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8672939854633651</v>
+        <v>0.8739070924142118</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9512533097955863</v>
+        <v>0.9487829950175286</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>315</v>
@@ -1829,19 +1829,19 @@
         <v>328617</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>307347</v>
+        <v>305452</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>352221</v>
+        <v>348733</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6529879712222556</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6107222569027894</v>
+        <v>0.6069579320365345</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6998912551857382</v>
+        <v>0.6929604452178869</v>
       </c>
     </row>
     <row r="21">
@@ -1936,7 +1936,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>10361</v>
+        <v>10677</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.00689891863149515</v>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02510594503420849</v>
+        <v>0.02587215373822212</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5698</v>
+        <v>6593</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01412631445581806</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.04638103947629623</v>
+        <v>0.05366292285748381</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4</v>
@@ -1975,19 +1975,19 @@
         <v>4583</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1458</v>
+        <v>1469</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>12456</v>
+        <v>11906</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.008556872709232865</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.002722826601777634</v>
+        <v>0.002742722132339646</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0232574291079029</v>
+        <v>0.02223145437180607</v>
       </c>
     </row>
     <row r="23">
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>4609</v>
+        <v>3589</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00210340272230382</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01116896453877636</v>
+        <v>0.008695784482007649</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>5483</v>
+        <v>4243</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007911207606964515</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04463030794969607</v>
+        <v>0.03453704358363873</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6481</v>
+        <v>6182</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003435704705657598</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0121014449511613</v>
+        <v>0.01154337928901767</v>
       </c>
     </row>
     <row r="24">
@@ -2075,19 +2075,19 @@
         <v>3542</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10259</v>
+        <v>10362</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.008583137023130788</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002136906767608231</v>
+        <v>0.002126487710588557</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02485870276518218</v>
+        <v>0.02510934197741481</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2109,19 +2109,19 @@
         <v>3542</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>895</v>
+        <v>875</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>11162</v>
+        <v>10440</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006614177888584645</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001670723724980828</v>
+        <v>0.00163436369082604</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02084200022548925</v>
+        <v>0.01949349679351014</v>
       </c>
     </row>
     <row r="25">
@@ -2138,19 +2138,19 @@
         <v>260874</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>241194</v>
+        <v>240528</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>279788</v>
+        <v>280091</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.6321232163296603</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.5844362645050212</v>
+        <v>0.5828216881046949</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.6779545650228809</v>
+        <v>0.6786875295753725</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2172,19 +2172,19 @@
         <v>260874</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>238486</v>
+        <v>237944</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>282784</v>
+        <v>284069</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4871150709864344</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4453104794972836</v>
+        <v>0.444297907066888</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.5280255263321213</v>
+        <v>0.5304254492258572</v>
       </c>
     </row>
     <row r="26">
@@ -2201,19 +2201,19 @@
         <v>9855</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4814</v>
+        <v>5194</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>17703</v>
+        <v>17826</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02387888959891626</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01166364076409209</v>
+        <v>0.01258457322640567</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04289533047740445</v>
+        <v>0.04319330331852012</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>20</v>
@@ -2222,19 +2222,19 @@
         <v>20365</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>12404</v>
+        <v>13067</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>29430</v>
+        <v>29097</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1657636232316405</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1009619578244852</v>
+        <v>0.1063650031170653</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.239551913179378</v>
+        <v>0.2368418122917711</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>30</v>
@@ -2243,19 +2243,19 @@
         <v>30220</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>19748</v>
+        <v>20246</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41915</v>
+        <v>41374</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.05642704088508756</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.03687371244003486</v>
+        <v>0.03780422786516879</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.07826579693215584</v>
+        <v>0.0772544035429608</v>
       </c>
     </row>
     <row r="27">
@@ -2288,7 +2288,7 @@
         <v>0</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>5277</v>
+        <v>5316</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.008627549387195971</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.04295746684832133</v>
+        <v>0.04326859388768778</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1</v>
@@ -2309,7 +2309,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5361</v>
+        <v>5360</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.001979147266190468</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.01001097004272043</v>
+        <v>0.01000809049706979</v>
       </c>
     </row>
     <row r="28">
@@ -2335,19 +2335,19 @@
         <v>12480</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>7274</v>
+        <v>6616</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>21205</v>
+        <v>20392</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03023975825627867</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01762584661280953</v>
+        <v>0.01603231004343593</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05138149306246464</v>
+        <v>0.04941198634711777</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4</v>
@@ -2356,19 +2356,19 @@
         <v>3960</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1125</v>
+        <v>955</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>9512</v>
+        <v>9494</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03223168335291639</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.009154847950032513</v>
+        <v>0.007774862344766097</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07742892864941052</v>
+        <v>0.07728257586789868</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>17</v>
@@ -2377,19 +2377,19 @@
         <v>16440</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>10045</v>
+        <v>9744</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>25623</v>
+        <v>25850</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.03069670297285339</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0187560733045285</v>
+        <v>0.01819450917937307</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04784445716140466</v>
+        <v>0.04826874637546019</v>
       </c>
     </row>
     <row r="29">
@@ -2406,19 +2406,19 @@
         <v>122229</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>104346</v>
+        <v>103324</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>142480</v>
+        <v>142166</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.296172677438215</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2528416117927767</v>
+        <v>0.2503635296065089</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3452417227169832</v>
+        <v>0.3444825493515062</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>93</v>
@@ -2427,19 +2427,19 @@
         <v>94762</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>84913</v>
+        <v>85278</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>103553</v>
+        <v>103379</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7713396219654646</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.6911659860067711</v>
+        <v>0.6941444923523059</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8428973703575295</v>
+        <v>0.8414769216977843</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>206</v>
@@ -2448,19 +2448,19 @@
         <v>216992</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>193183</v>
+        <v>194241</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>239972</v>
+        <v>238928</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.4051752825859591</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3607184914612555</v>
+        <v>0.3626949331688125</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4480856297706383</v>
+        <v>0.4461361117474978</v>
       </c>
     </row>
     <row r="30">
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6511</v>
+        <v>5653</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002107486808279669</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.007359435877763568</v>
+        <v>0.006389226961723285</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1</v>
@@ -2576,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>7929</v>
+        <v>8998</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.003646721676977386</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.01814610503834239</v>
+        <v>0.02059342285166423</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2594,19 +2594,19 @@
         <v>3458</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10753</v>
+        <v>9605</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.002616349485562062</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.0007044876184472076</v>
+        <v>0.0007028424966970378</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.008136280506622457</v>
+        <v>0.007267649654982373</v>
       </c>
     </row>
     <row r="32">
@@ -2623,19 +2623,19 @@
         <v>3881</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>9480</v>
+        <v>9550</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.004387076793203018</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001082158387710795</v>
+        <v>0.001090247906966569</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01071551972585995</v>
+        <v>0.01079384256227252</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2644,19 +2644,19 @@
         <v>5077</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1772</v>
+        <v>1937</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11109</v>
+        <v>11170</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01161993595485687</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004056082044452809</v>
+        <v>0.004433095885828571</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02542565699785576</v>
+        <v>0.0255638756302424</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>9</v>
@@ -2665,19 +2665,19 @@
         <v>8959</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>4047</v>
+        <v>4646</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16134</v>
+        <v>16076</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.006778220699993286</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.003062329109419567</v>
+        <v>0.003515578433093385</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01220719943776084</v>
+        <v>0.01216362619695589</v>
       </c>
     </row>
     <row r="33">
@@ -2694,19 +2694,19 @@
         <v>7052</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>2459</v>
+        <v>2414</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>15595</v>
+        <v>17338</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.007971215057649342</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.002779634663705824</v>
+        <v>0.002728344094097609</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01762737183220657</v>
+        <v>0.01959734315561279</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>0</v>
@@ -2728,19 +2728,19 @@
         <v>7052</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2578</v>
+        <v>2606</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>15619</v>
+        <v>15964</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.005335974706798274</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.001950217855486084</v>
+        <v>0.001971703756178703</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01181799099328159</v>
+        <v>0.0120786629606096</v>
       </c>
     </row>
     <row r="34">
@@ -2757,19 +2757,19 @@
         <v>544626</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>517819</v>
+        <v>516414</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>577517</v>
+        <v>574325</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6155825440882565</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.5852839120240082</v>
+        <v>0.5836955838317117</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6527595836471735</v>
+        <v>0.6491516807743622</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5811</v>
+        <v>6144</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.004357753422531526</v>
@@ -2790,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01329893714492712</v>
+        <v>0.01406221417860341</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>550</v>
@@ -2799,19 +2799,19 @@
         <v>546530</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>513718</v>
+        <v>512436</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>584617</v>
+        <v>581406</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.4135149521146675</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.3886886061788523</v>
+        <v>0.3877189035692146</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.4423324376878568</v>
+        <v>0.4399030332637481</v>
       </c>
     </row>
     <row r="35">
@@ -2828,19 +2828,19 @@
         <v>51458</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>39215</v>
+        <v>38779</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>66619</v>
+        <v>64288</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05816260994337689</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04432401897057662</v>
+        <v>0.04383154783753673</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07529859872092273</v>
+        <v>0.07266361555641711</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>90</v>
@@ -2849,19 +2849,19 @@
         <v>87147</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>72906</v>
+        <v>72280</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>104699</v>
+        <v>103511</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1994499106025166</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1668572145289391</v>
+        <v>0.1654235137858551</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2396200371711213</v>
+        <v>0.2369006541867814</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>144</v>
@@ -2870,19 +2870,19 @@
         <v>138605</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>114341</v>
+        <v>119358</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>159314</v>
+        <v>162427</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1048714232255502</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.08651273325888548</v>
+        <v>0.0903085016842464</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1205396427837435</v>
+        <v>0.1228952363512235</v>
       </c>
     </row>
     <row r="36">
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>9192</v>
+        <v>10378</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.002063999524665386</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.01038936074663727</v>
+        <v>0.01173060688432941</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -2936,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>10248</v>
+        <v>9139</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001381652505773185</v>
@@ -2945,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.007753582673156395</v>
+        <v>0.006914964764995099</v>
       </c>
     </row>
     <row r="37">
@@ -2962,19 +2962,19 @@
         <v>30928</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>20574</v>
+        <v>20848</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>42734</v>
+        <v>43183</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03495773213179316</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02325399218283689</v>
+        <v>0.0235647038632653</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.04830150601308891</v>
+        <v>0.04880925531703282</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>19</v>
@@ -2983,19 +2983,19 @@
         <v>18515</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>11772</v>
+        <v>11053</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>28732</v>
+        <v>28158</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.04237353979126801</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.02694178894430651</v>
+        <v>0.0252961476868143</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.06575880684089952</v>
+        <v>0.06444411520083215</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>49</v>
@@ -3004,19 +3004,19 @@
         <v>49443</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>36287</v>
+        <v>36557</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>63781</v>
+        <v>62646</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03740935781709508</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0274557266688082</v>
+        <v>0.02766009367374045</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04825794235943999</v>
+        <v>0.04739878520589869</v>
       </c>
     </row>
     <row r="38">
@@ -3033,19 +3033,19 @@
         <v>243095</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>214995</v>
+        <v>217268</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>269426</v>
+        <v>270433</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2747673356527759</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2430056450537578</v>
+        <v>0.2455753730103823</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3045278965863263</v>
+        <v>0.305666117441747</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>311</v>
@@ -3054,19 +3054,19 @@
         <v>322701</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>303303</v>
+        <v>305072</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>340374</v>
+        <v>339112</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7385521385518496</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6941565040661284</v>
+        <v>0.6982062221572565</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7790011560532548</v>
+        <v>0.7761128560356992</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>545</v>
@@ -3075,19 +3075,19 @@
         <v>565796</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>529493</v>
+        <v>528869</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>600948</v>
+        <v>600013</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4280920694445604</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4006248406012736</v>
+        <v>0.400152536856814</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4546890635791766</v>
+        <v>0.4539813636109973</v>
       </c>
     </row>
     <row r="39">
@@ -3182,7 +3182,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6331</v>
+        <v>6198</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.00853437556050328</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02984715836380618</v>
+        <v>0.02921884515546442</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -3203,7 +3203,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>7021</v>
+        <v>6996</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.005099282512936894</v>
@@ -3212,7 +3212,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01778338063268486</v>
+        <v>0.01771805957933197</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -3221,19 +3221,19 @@
         <v>3824</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>9536</v>
+        <v>9727</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.006299795935512003</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.001628759322441411</v>
+        <v>0.00163711062333866</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01571199077270512</v>
+        <v>0.01602651243903998</v>
       </c>
     </row>
     <row r="41">
@@ -3250,19 +3250,19 @@
         <v>3168</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>782</v>
+        <v>771</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9504</v>
+        <v>8762</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01493621411047969</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.003686607027202967</v>
+        <v>0.003636100786452689</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04480742294813632</v>
+        <v>0.04130617293630276</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>2</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7760</v>
+        <v>7417</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.005568008626168569</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.01965303741202791</v>
+        <v>0.01878627117305184</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>5</v>
@@ -3292,19 +3292,19 @@
         <v>5367</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1872</v>
+        <v>1865</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>12337</v>
+        <v>12010</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.00884205572580246</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.003084769240910981</v>
+        <v>0.00307219379443533</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02032580916131958</v>
+        <v>0.01978816808559277</v>
       </c>
     </row>
     <row r="42">
@@ -3368,19 +3368,19 @@
         <v>130805</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>116885</v>
+        <v>116122</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>144698</v>
+        <v>146111</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.6166661237570454</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.5510423037015149</v>
+        <v>0.547442859264316</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6821596089313112</v>
+        <v>0.6888212809133075</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -3402,19 +3402,19 @@
         <v>130805</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>109702</v>
+        <v>111049</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>150998</v>
+        <v>152318</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2155155474877685</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1807449235005191</v>
+        <v>0.1829650724506288</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2487852489381073</v>
+        <v>0.2509595571134854</v>
       </c>
     </row>
     <row r="44">
@@ -3431,19 +3431,19 @@
         <v>7585</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>3599</v>
+        <v>3684</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>13917</v>
+        <v>15693</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03576070356610767</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01696702916657273</v>
+        <v>0.01736612132684905</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06560807846926045</v>
+        <v>0.0739838719945495</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>83</v>
@@ -3452,19 +3452,19 @@
         <v>85139</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>68995</v>
+        <v>69990</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>102251</v>
+        <v>102732</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2156381666157994</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1747474452415689</v>
+        <v>0.1772687750109344</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2589786024781348</v>
+        <v>0.2601962553712793</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>91</v>
@@ -3473,19 +3473,19 @@
         <v>92725</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>76844</v>
+        <v>77918</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>110833</v>
+        <v>113881</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1527736951678131</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1266092810313145</v>
+        <v>0.1283778830258252</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1826093958942447</v>
+        <v>0.1876300380297665</v>
       </c>
     </row>
     <row r="45">
@@ -3549,19 +3549,19 @@
         <v>14771</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8585</v>
+        <v>8525</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>23234</v>
+        <v>23361</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.06963540620723889</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.04047090888714103</v>
+        <v>0.04018872780036151</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1095342856001789</v>
+        <v>0.1101331553796029</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>20</v>
@@ -3570,19 +3570,19 @@
         <v>19852</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>12663</v>
+        <v>12377</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>29773</v>
+        <v>30067</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.05028102546690914</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.03207142989953171</v>
+        <v>0.03134906680888449</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.07540853057095633</v>
+        <v>0.0761539340509645</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>35</v>
@@ -3591,19 +3591,19 @@
         <v>34623</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>24322</v>
+        <v>24852</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>46777</v>
+        <v>47347</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.05704509081904165</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.04007222530929351</v>
+        <v>0.04094690089291087</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.0770696934563349</v>
+        <v>0.07800916189522622</v>
       </c>
     </row>
     <row r="47">
@@ -3620,19 +3620,19 @@
         <v>53977</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>40417</v>
+        <v>42539</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>66640</v>
+        <v>69518</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2544671767986251</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1905412445050803</v>
+        <v>0.2005435549638236</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.314168563501994</v>
+        <v>0.3277358280526417</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>269</v>
@@ -3641,19 +3641,19 @@
         <v>285622</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>266729</v>
+        <v>267549</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>303497</v>
+        <v>302440</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.723413516778186</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.6755635298037488</v>
+        <v>0.6776390222841266</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.7686872235547814</v>
+        <v>0.7660100776051347</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>320</v>
@@ -3662,19 +3662,19 @@
         <v>339599</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>315588</v>
+        <v>313291</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>364312</v>
+        <v>362434</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.5595238148640622</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.5199643324335005</v>
+        <v>0.5161788925313682</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.6002415527803627</v>
+        <v>0.5971471956867025</v>
       </c>
     </row>
     <row r="48">
@@ -3779,19 +3779,19 @@
         <v>4174</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>1069</v>
+        <v>1218</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>10554</v>
+        <v>9995</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.005846431295796576</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.001497653937190477</v>
+        <v>0.001706694692236845</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01478335674464369</v>
+        <v>0.01399957523764495</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>4</v>
@@ -3800,19 +3800,19 @@
         <v>4174</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1065</v>
+        <v>1069</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>10667</v>
+        <v>10304</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.005798735949455975</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001479180839775968</v>
+        <v>0.001484967063331809</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01482025159450053</v>
+        <v>0.01431462065210548</v>
       </c>
     </row>
     <row r="50">
@@ -3842,19 +3842,19 @@
         <v>9273</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>4981</v>
+        <v>4250</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>17100</v>
+        <v>17010</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01298853719139199</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.006976637942662977</v>
+        <v>0.005953752095946701</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02395184196118028</v>
+        <v>0.02382581790388005</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>9</v>
@@ -3863,19 +3863,19 @@
         <v>9273</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>4925</v>
+        <v>4599</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>16771</v>
+        <v>16966</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01288257634990454</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.006841603455983258</v>
+        <v>0.006389914868483306</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02329996409521715</v>
+        <v>0.02357056541002141</v>
       </c>
     </row>
     <row r="51">
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>4784</v>
+        <v>4757</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.3090739824861328</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.8147309287259179</v>
+        <v>0.8101936218585717</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>5558</v>
+        <v>7116</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.002521433998573388</v>
@@ -3985,7 +3985,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.00772142708648343</v>
+        <v>0.009885618728660454</v>
       </c>
     </row>
     <row r="53">
@@ -4015,19 +4015,19 @@
         <v>291669</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>265812</v>
+        <v>266596</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>317885</v>
+        <v>316620</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.408547042409513</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.3723292435686365</v>
+        <v>0.3734275383888516</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.445268749505882</v>
+        <v>0.4434962752013695</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>291</v>
@@ -4036,19 +4036,19 @@
         <v>291669</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>265055</v>
+        <v>264891</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>319273</v>
+        <v>318101</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.4052141044686943</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.368238994210332</v>
+        <v>0.3680118913331732</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.4435643352713088</v>
+        <v>0.441936419807115</v>
       </c>
     </row>
     <row r="54">
@@ -4125,19 +4125,19 @@
         <v>16340</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>9097</v>
+        <v>9080</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>25983</v>
+        <v>27455</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.02288815465412994</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.01274171673118862</v>
+        <v>0.01271801958624173</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.03639485524899091</v>
+        <v>0.0384564486030685</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>15</v>
@@ -4146,19 +4146,19 @@
         <v>16340</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>9324</v>
+        <v>9039</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>26625</v>
+        <v>26252</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.02270143246274614</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.01295346269466422</v>
+        <v>0.01255726854745784</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.03698945481689701</v>
+        <v>0.03647220988446157</v>
       </c>
     </row>
     <row r="56">
@@ -4175,7 +4175,7 @@
         <v>4057</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>1088</v>
+        <v>1115</v>
       </c>
       <c r="F56" s="5" t="n">
         <v>5872</v>
@@ -4184,7 +4184,7 @@
         <v>0.6909260175138672</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1852690712740821</v>
+        <v>0.1898063781414283</v>
       </c>
       <c r="I56" s="6" t="n">
         <v>1</v>
@@ -4196,19 +4196,19 @@
         <v>392461</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>367356</v>
+        <v>365367</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>418523</v>
+        <v>418683</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.5497298344491686</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.5145638900813897</v>
+        <v>0.5117777157556471</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.5862353584393414</v>
+        <v>0.5864588009039042</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>384</v>
@@ -4217,19 +4217,19 @@
         <v>396519</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>368320</v>
+        <v>371747</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>421431</v>
+        <v>423014</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.5508817167706257</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.5117050517584336</v>
+        <v>0.516466499496521</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.5854914607710435</v>
+        <v>0.58769103949297</v>
       </c>
     </row>
     <row r="57">
@@ -4321,19 +4321,19 @@
         <v>9416</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>4590</v>
+        <v>4626</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>18660</v>
+        <v>18478</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.004411241698779322</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.002150431268514784</v>
+        <v>0.00216699745390602</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.008741817547061714</v>
+        <v>0.008656497226309141</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>11</v>
@@ -4342,19 +4342,19 @@
         <v>11670</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>5782</v>
+        <v>6442</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>20895</v>
+        <v>20313</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.005525876946830347</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.002738010897781049</v>
+        <v>0.003050317180785485</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.009894187377687581</v>
+        <v>0.009618415264343703</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>20</v>
@@ -4363,19 +4363,19 @@
         <v>21086</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>13376</v>
+        <v>12920</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>31985</v>
+        <v>31842</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.004965585315333518</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.003150038089034126</v>
+        <v>0.003042471887546375</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.007532217693067498</v>
+        <v>0.007498549859943353</v>
       </c>
     </row>
     <row r="59">
@@ -4392,19 +4392,19 @@
         <v>8687</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>4369</v>
+        <v>4294</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>17063</v>
+        <v>17089</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.004069779512655252</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.002046885500196384</v>
+        <v>0.002011519108782865</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.007993848365540141</v>
+        <v>0.008006074076602048</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>20</v>
@@ -4413,19 +4413,19 @@
         <v>20272</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>12843</v>
+        <v>12712</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>31836</v>
+        <v>30876</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.009598916062210364</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.006081279041168122</v>
+        <v>0.00601910635823417</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.01507471624087018</v>
+        <v>0.0146201252296584</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>29</v>
@@ -4434,19 +4434,19 @@
         <v>28959</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>19625</v>
+        <v>19149</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>41041</v>
+        <v>41097</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.006819595254317551</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.004621555611538182</v>
+        <v>0.004509417252399561</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.009664817597584257</v>
+        <v>0.009678168792190881</v>
       </c>
     </row>
     <row r="60">
@@ -4463,19 +4463,19 @@
         <v>16185</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>8761</v>
+        <v>8572</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>27708</v>
+        <v>26573</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.007582556565736765</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.004104524197690323</v>
+        <v>0.004015687950331881</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.01298083964849579</v>
+        <v>0.0124489978001412</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>0</v>
@@ -4497,19 +4497,19 @@
         <v>16185</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>8967</v>
+        <v>8939</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>29145</v>
+        <v>30522</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.003811509636504122</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.002111599754888306</v>
+        <v>0.002105084819014909</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.006863546992582729</v>
+        <v>0.00718777340052574</v>
       </c>
     </row>
     <row r="61">
@@ -4526,19 +4526,19 @@
         <v>1219398</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>1172633</v>
+        <v>1172858</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>1264280</v>
+        <v>1262809</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.5712715783524263</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.549362710332421</v>
+        <v>0.549468116294594</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.5922979502912085</v>
+        <v>0.591609084020851</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>4</v>
@@ -4547,19 +4547,19 @@
         <v>4687</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>1802</v>
+        <v>988</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>14032</v>
+        <v>12668</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.002219248609838984</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.0008530458406448177</v>
+        <v>0.0004680496593621847</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.006644189242372621</v>
+        <v>0.005998394603768226</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>1218</v>
@@ -4568,19 +4568,19 @@
         <v>1224085</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>1162731</v>
+        <v>1163560</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>1279387</v>
+        <v>1283348</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.2882637271027264</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.2738153830959013</v>
+        <v>0.2740104510191348</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.301287106856013</v>
+        <v>0.302219722485262</v>
       </c>
     </row>
     <row r="62">
@@ -4597,19 +4597,19 @@
         <v>91818</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>74946</v>
+        <v>75517</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>113048</v>
+        <v>114242</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.04301542808178761</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.03511101898078046</v>
+        <v>0.0353788909767504</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.05296144432668699</v>
+        <v>0.053520786086522</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>515</v>
@@ -4618,19 +4618,19 @@
         <v>516705</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>476757</v>
+        <v>477406</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>555714</v>
+        <v>556100</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.2446666313625367</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.2257509787739932</v>
+        <v>0.2260579667808265</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.2631378249313325</v>
+        <v>0.2633207312883296</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>607</v>
@@ -4639,19 +4639,19 @@
         <v>608523</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>560962</v>
+        <v>565143</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>651521</v>
+        <v>660085</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.1433029952519572</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.1321028263549456</v>
+        <v>0.1330873431706704</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.1534287282629617</v>
+        <v>0.1554455148188364</v>
       </c>
     </row>
     <row r="63">
@@ -4671,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>9106</v>
+        <v>7348</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.0008554973288718369</v>
@@ -4680,7 +4680,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.004266001756637324</v>
+        <v>0.00344248437909421</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>1</v>
@@ -4692,7 +4692,7 @@
         <v>0</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>5309</v>
+        <v>5287</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.0005018917631511793</v>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.002513871846657152</v>
+        <v>0.002503478400842533</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>2</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>11170</v>
+        <v>10360</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.0006796380166187683</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.002630512115746438</v>
+        <v>0.002439795276765281</v>
       </c>
     </row>
     <row r="64">
@@ -4739,19 +4739,19 @@
         <v>81486</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>64725</v>
+        <v>65182</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>100732</v>
+        <v>101229</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.03817526801768877</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.03032283563559574</v>
+        <v>0.03053673327333721</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.04719164137446477</v>
+        <v>0.04742420723846792</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>63</v>
@@ -4760,19 +4760,19 @@
         <v>63482</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>50050</v>
+        <v>49016</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>81330</v>
+        <v>81976</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.0300595921749127</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.02369927745280994</v>
+        <v>0.02320952269498096</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.03851104719901332</v>
+        <v>0.03881655041758692</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>141</v>
@@ -4781,19 +4781,19 @@
         <v>144968</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>122874</v>
+        <v>119497</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>169498</v>
+        <v>168771</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.03413908388899516</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.02893606517194954</v>
+        <v>0.02814080684592469</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.0399155657500861</v>
+        <v>0.03974444231431296</v>
       </c>
     </row>
     <row r="65">
@@ -4810,19 +4810,19 @@
         <v>705716</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>664278</v>
+        <v>663023</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>752855</v>
+        <v>750207</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.3306186504420542</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.3112053680984723</v>
+        <v>0.3106175189745473</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.3527023964467798</v>
+        <v>0.3514620316636925</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>1437</v>
@@ -4831,19 +4831,19 @@
         <v>1493998</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>1452216</v>
+        <v>1454450</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>1534262</v>
+        <v>1535753</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.7074278430805198</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.6876438433065776</v>
+        <v>0.6887014987164419</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.7264935679783449</v>
+        <v>0.7271994659264939</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>2109</v>
@@ -4852,19 +4852,19 @@
         <v>2199714</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>2132174</v>
+        <v>2135408</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>2266828</v>
+        <v>2272824</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.5180178655335472</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.502112519296225</v>
+        <v>0.5028740969276396</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.5338227774549954</v>
+        <v>0.5352347823386017</v>
       </c>
     </row>
     <row r="66">
@@ -5201,7 +5201,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12084</v>
+        <v>11110</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005863917045174902</v>
@@ -5210,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03796858165706421</v>
+        <v>0.03490990942433372</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9879</v>
+        <v>9366</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00833327039268951</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04433409572058117</v>
+        <v>0.04203250487386878</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -5243,7 +5243,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12964</v>
+        <v>12955</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.006880854895763503</v>
@@ -5252,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02395979585240603</v>
+        <v>0.02394217142174953</v>
       </c>
     </row>
     <row r="5">
@@ -5272,7 +5272,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4621</v>
+        <v>6777</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003555272772785586</v>
@@ -5281,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01451836397211637</v>
+        <v>0.02129266335599302</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9640</v>
+        <v>9725</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01174011270539028</v>
@@ -5302,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04326032795698454</v>
+        <v>0.04364071528610284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>3</v>
@@ -5311,19 +5311,19 @@
         <v>3748</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10413</v>
+        <v>11258</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006925982572925087</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001795016632707582</v>
+        <v>0.001774763335620394</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01924383652551638</v>
+        <v>0.02080572077712041</v>
       </c>
     </row>
     <row r="6">
@@ -5340,19 +5340,19 @@
         <v>3905</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9428</v>
+        <v>9198</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01226955109254912</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002853289781587755</v>
+        <v>0.002863674857309303</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02962329397472165</v>
+        <v>0.02889992587303726</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -5364,7 +5364,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>4987</v>
+        <v>4463</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004406066198754667</v>
@@ -5373,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0223807777046042</v>
+        <v>0.02002722668637091</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -5382,19 +5382,19 @@
         <v>4887</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1772</v>
+        <v>1806</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11023</v>
+        <v>11322</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.009031182863846703</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.003275094001517187</v>
+        <v>0.003337633283172148</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02037257991183455</v>
+        <v>0.02092456856996138</v>
       </c>
     </row>
     <row r="7">
@@ -5411,19 +5411,19 @@
         <v>117665</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>99003</v>
+        <v>100181</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>135457</v>
+        <v>135412</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3697154443722377</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3110776696395274</v>
+        <v>0.3147778539053815</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4256201483413756</v>
+        <v>0.4254798617401704</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -5445,19 +5445,19 @@
         <v>117665</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>95766</v>
+        <v>98035</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>138543</v>
+        <v>139617</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2174579192563069</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1769857377267692</v>
+        <v>0.1811802241147225</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2560437422846589</v>
+        <v>0.2580273189984036</v>
       </c>
     </row>
     <row r="8">
@@ -5474,19 +5474,19 @@
         <v>8542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3489</v>
+        <v>3558</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>16537</v>
+        <v>17019</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02684085086138098</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01096295899089848</v>
+        <v>0.011179797826314</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.05196036127843114</v>
+        <v>0.05347413819040085</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -5495,19 +5495,19 @@
         <v>19093</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>11420</v>
+        <v>11459</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>29911</v>
+        <v>29488</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08568141484117811</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05124813194985312</v>
+        <v>0.05142462875888198</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1342298596969603</v>
+        <v>0.1323312553644286</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>24</v>
@@ -5516,19 +5516,19 @@
         <v>27635</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17361</v>
+        <v>18366</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>40386</v>
+        <v>42119</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05107278053692209</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03208472438831447</v>
+        <v>0.03394262923027375</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0746373659816698</v>
+        <v>0.07784122808232635</v>
       </c>
     </row>
     <row r="9">
@@ -5592,19 +5592,19 @@
         <v>32141</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21718</v>
+        <v>21186</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>47118</v>
+        <v>46884</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.100991533002904</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06824074324732948</v>
+        <v>0.06656864795647728</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1480501454637072</v>
+        <v>0.1473131386371036</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>16</v>
@@ -5613,19 +5613,19 @@
         <v>18822</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11441</v>
+        <v>10867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30572</v>
+        <v>29453</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08446783687472911</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0513430144037008</v>
+        <v>0.04876874604654313</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1371947939713948</v>
+        <v>0.1321756586646495</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>42</v>
@@ -5634,19 +5634,19 @@
         <v>50964</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>37173</v>
+        <v>37244</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>67851</v>
+        <v>68023</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09418668587915068</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06869933891570604</v>
+        <v>0.06883116068751843</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1253952792097348</v>
+        <v>0.1257135181423315</v>
       </c>
     </row>
     <row r="11">
@@ -5663,19 +5663,19 @@
         <v>153007</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>135412</v>
+        <v>135724</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>172839</v>
+        <v>173725</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4807634308529677</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4254797687153954</v>
+        <v>0.4264591714759181</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5430792081011635</v>
+        <v>0.5458630001252569</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>163</v>
@@ -5684,19 +5684,19 @@
         <v>179465</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>163818</v>
+        <v>164908</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>190365</v>
+        <v>190442</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8053712989872583</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7351524146137364</v>
+        <v>0.7400441553954684</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8542856234970369</v>
+        <v>0.854632652462503</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>308</v>
@@ -5705,19 +5705,19 @@
         <v>332472</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>306370</v>
+        <v>309692</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>355277</v>
+        <v>358191</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.614444593995085</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5662056782841798</v>
+        <v>0.572344608799162</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6565904914514207</v>
+        <v>0.6619759175863704</v>
       </c>
     </row>
     <row r="12">
@@ -5869,19 +5869,19 @@
         <v>4128</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>927</v>
+        <v>951</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>11486</v>
+        <v>12433</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01694595281685162</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.003803764165995804</v>
+        <v>0.003904033863763077</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04715290595827454</v>
+        <v>0.05104063081932021</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -5890,19 +5890,19 @@
         <v>4128</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>933</v>
+        <v>943</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12141</v>
+        <v>11211</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007552747038152862</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001706347424571344</v>
+        <v>0.001725940027051382</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02221413181120875</v>
+        <v>0.02051141836626167</v>
       </c>
     </row>
     <row r="15">
@@ -5919,19 +5919,19 @@
         <v>5243</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>15117</v>
+        <v>15300</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01730744008791495</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003062383325452602</v>
+        <v>0.003079209590474032</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04989956586239914</v>
+        <v>0.05050249134460968</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -5943,7 +5943,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4736</v>
+        <v>4836</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003888758830200146</v>
@@ -5952,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.01944188168198393</v>
+        <v>0.01985175087452461</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>4</v>
@@ -5961,19 +5961,19 @@
         <v>6191</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1865</v>
+        <v>1874</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16386</v>
+        <v>17702</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01132678463463532</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003411822509209732</v>
+        <v>0.003429306764454231</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02998127995785363</v>
+        <v>0.03238939285027508</v>
       </c>
     </row>
     <row r="16">
@@ -5990,19 +5990,19 @@
         <v>124050</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>108356</v>
+        <v>107019</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>144450</v>
+        <v>143740</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.40946532999532</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3576630231265404</v>
+        <v>0.3532501150772983</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4768016877998173</v>
+        <v>0.4744571389627248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12297</v>
+        <v>9780</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00783591540837226</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05048155698784895</v>
+        <v>0.04014946379177955</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>116</v>
@@ -6032,19 +6032,19 @@
         <v>125959</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>107008</v>
+        <v>107106</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>146195</v>
+        <v>150441</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2304606198889565</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1957866538754814</v>
+        <v>0.1959671163731529</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2674854078414387</v>
+        <v>0.2752551776694692</v>
       </c>
     </row>
     <row r="17">
@@ -6061,19 +6061,19 @@
         <v>16280</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8292</v>
+        <v>9077</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27192</v>
+        <v>26928</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05373824302693547</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02737053894834433</v>
+        <v>0.02996120091791021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08975467176496624</v>
+        <v>0.08888353848220762</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>18</v>
@@ -6082,19 +6082,19 @@
         <v>21702</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>13068</v>
+        <v>12794</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>32603</v>
+        <v>32520</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08909117384595347</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05364503751826517</v>
+        <v>0.05252327343549668</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1338386297884328</v>
+        <v>0.1334998298966564</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>31</v>
@@ -6103,19 +6103,19 @@
         <v>37983</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25869</v>
+        <v>27178</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>53053</v>
+        <v>52517</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06949491049905518</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04733132864192975</v>
+        <v>0.04972648150835999</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0970690692681308</v>
+        <v>0.09608848197997154</v>
       </c>
     </row>
     <row r="18">
@@ -6132,19 +6132,19 @@
         <v>2847</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7705</v>
+        <v>7745</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.009398868842453844</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003073716398707234</v>
+        <v>0.003058341114134702</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02543143968504079</v>
+        <v>0.02556588405603833</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>0</v>
@@ -6166,19 +6166,19 @@
         <v>2847</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>8689</v>
+        <v>7890</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.005209828569590675</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001700099931262167</v>
+        <v>0.001709687060578003</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01589836878747089</v>
+        <v>0.01443534359332658</v>
       </c>
     </row>
     <row r="19">
@@ -6195,19 +6195,19 @@
         <v>22007</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>13833</v>
+        <v>13888</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>34044</v>
+        <v>34595</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07264224976802645</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04566158717802117</v>
+        <v>0.04584013011675417</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.112373517309502</v>
+        <v>0.1141916513873683</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>16</v>
@@ -6216,19 +6216,19 @@
         <v>16930</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>10060</v>
+        <v>10104</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>27728</v>
+        <v>26025</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.06949940064848065</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.041299086048723</v>
+        <v>0.04147853089246085</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1138279272145035</v>
+        <v>0.1068357814501215</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>36</v>
@@ -6237,19 +6237,19 @@
         <v>38937</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>27704</v>
+        <v>27806</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>53839</v>
+        <v>54136</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07124149380962405</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05068871075545697</v>
+        <v>0.05087477840498052</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.09850753632682592</v>
+        <v>0.0990505476753912</v>
       </c>
     </row>
     <row r="20">
@@ -6266,19 +6266,19 @@
         <v>132527</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113426</v>
+        <v>115021</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>148767</v>
+        <v>151008</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4374478682793493</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3743984644802456</v>
+        <v>0.379663829011548</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4910515335132102</v>
+        <v>0.4984483694187613</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>176</v>
@@ -6287,19 +6287,19 @@
         <v>197980</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>183331</v>
+        <v>185100</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>210766</v>
+        <v>210212</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8127387984501419</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7526028855354707</v>
+        <v>0.7598649049583941</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8652289067451349</v>
+        <v>0.8629532888442526</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>292</v>
@@ -6308,19 +6308,19 @@
         <v>330507</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>306296</v>
+        <v>303122</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>353865</v>
+        <v>353252</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6047136155599854</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5604142758187033</v>
+        <v>0.5546080146851219</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6474492498322522</v>
+        <v>0.6463278795175161</v>
       </c>
     </row>
     <row r="21">
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>12877</v>
+        <v>10835</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.004576692290030812</v>
@@ -6424,7 +6424,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02709629189721316</v>
+        <v>0.02279883102076726</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>10787</v>
+        <v>10783</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.003328117450178076</v>
@@ -6458,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01650594289532722</v>
+        <v>0.01650015207220591</v>
       </c>
     </row>
     <row r="23">
@@ -6475,19 +6475,19 @@
         <v>4003</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1004</v>
+        <v>1017</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>10057</v>
+        <v>9971</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.008423037931814585</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.002112566468786011</v>
+        <v>0.002140761192152885</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.02116147677934696</v>
+        <v>0.02098118460223764</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5</v>
@@ -6496,19 +6496,19 @@
         <v>6965</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2115</v>
+        <v>2053</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16058</v>
+        <v>15541</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03906753090276362</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01186378193449835</v>
+        <v>0.01151338811391212</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09007020075551624</v>
+        <v>0.08716792772718635</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -6517,19 +6517,19 @@
         <v>10968</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5943</v>
+        <v>4982</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>21586</v>
+        <v>21138</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01678321171647455</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.009093505377164813</v>
+        <v>0.007623886637995547</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03303073579464377</v>
+        <v>0.03234463550972801</v>
       </c>
     </row>
     <row r="24">
@@ -6546,19 +6546,19 @@
         <v>5673</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1994</v>
+        <v>1968</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12247</v>
+        <v>12225</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01193687064418134</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004196368798026492</v>
+        <v>0.004140858277573792</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02577021596089289</v>
+        <v>0.02572464034739059</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6803</v>
+        <v>4907</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.005433829104734223</v>
@@ -6579,7 +6579,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03815790397192023</v>
+        <v>0.02752169991832331</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>7</v>
@@ -6588,19 +6588,19 @@
         <v>6641</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2812</v>
+        <v>2845</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>13411</v>
+        <v>13324</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01016276534408125</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.00430310805317072</v>
+        <v>0.004353420498955554</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02052122593768467</v>
+        <v>0.02038859326828588</v>
       </c>
     </row>
     <row r="25">
@@ -6617,19 +6617,19 @@
         <v>214052</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>192703</v>
+        <v>194135</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>236789</v>
+        <v>237694</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4504211924945155</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4054966970817227</v>
+        <v>0.4085100561700392</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4982653028090888</v>
+        <v>0.500168751587341</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -6651,19 +6651,19 @@
         <v>214052</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>190977</v>
+        <v>188593</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>240664</v>
+        <v>238317</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3275410570940794</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2922318462146913</v>
+        <v>0.2885843405167651</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.368261932862653</v>
+        <v>0.3646710092029649</v>
       </c>
     </row>
     <row r="26">
@@ -6680,19 +6680,19 @@
         <v>26875</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>15984</v>
+        <v>15923</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>39844</v>
+        <v>39618</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.05655095517180991</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03363354706038361</v>
+        <v>0.03350530968333621</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08384194055593489</v>
+        <v>0.08336543793298795</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>32</v>
@@ -6701,19 +6701,19 @@
         <v>33823</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>23767</v>
+        <v>24789</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46344</v>
+        <v>46929</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1897098095160208</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1333095420108533</v>
+        <v>0.1390379164760092</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2599393203315421</v>
+        <v>0.263224127454734</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>54</v>
@@ -6722,19 +6722,19 @@
         <v>60697</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>46024</v>
+        <v>46106</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>78658</v>
+        <v>78388</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09287823800005475</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07042600736231699</v>
+        <v>0.07055058538752632</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1203613670887012</v>
+        <v>0.1199483708400384</v>
       </c>
     </row>
     <row r="27">
@@ -6754,7 +6754,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5424</v>
+        <v>6353</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.001971717908201737</v>
@@ -6763,7 +6763,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01141322704173256</v>
+        <v>0.01336810314813331</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>5092</v>
+        <v>5214</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.001433810350634396</v>
@@ -6797,7 +6797,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.007791985168343785</v>
+        <v>0.007978835428799643</v>
       </c>
     </row>
     <row r="28">
@@ -6814,19 +6814,19 @@
         <v>73816</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>57695</v>
+        <v>58476</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>91872</v>
+        <v>90946</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.155328340885158</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.121405723333219</v>
+        <v>0.1230480093646176</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1933212975494793</v>
+        <v>0.1913737923305592</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>24</v>
@@ -6835,19 +6835,19 @@
         <v>25376</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17004</v>
+        <v>16320</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>36933</v>
+        <v>37394</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1423327249195331</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09537498740256706</v>
+        <v>0.09153670564871251</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2071579613856565</v>
+        <v>0.2097428041377462</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>95</v>
@@ -6856,19 +6856,19 @@
         <v>99192</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>81317</v>
+        <v>82799</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>119829</v>
+        <v>122828</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1517829858350901</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1244315072347396</v>
+        <v>0.1266982205869874</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.183361223749071</v>
+        <v>0.187951358467298</v>
       </c>
     </row>
     <row r="29">
@@ -6885,19 +6885,19 @@
         <v>147696</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>127848</v>
+        <v>125522</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>170067</v>
+        <v>166328</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3107911926742881</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2690242304776304</v>
+        <v>0.2641301017429399</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3578646922426428</v>
+        <v>0.3499965856606815</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>106</v>
@@ -6906,19 +6906,19 @@
         <v>111153</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>97254</v>
+        <v>96129</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>125529</v>
+        <v>123657</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.6234561055569483</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.5454943983270918</v>
+        <v>0.5391865027271442</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7040871494671588</v>
+        <v>0.6935892247231464</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>248</v>
@@ -6927,19 +6927,19 @@
         <v>258849</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>235048</v>
+        <v>231819</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>287185</v>
+        <v>284831</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3960898142094075</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3596684548500015</v>
+        <v>0.3547283157777032</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4394493938584373</v>
+        <v>0.4358460634460928</v>
       </c>
     </row>
     <row r="30">
@@ -7034,7 +7034,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6726</v>
+        <v>7549</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.00165530956812812</v>
@@ -7043,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.008344710550038992</v>
+        <v>0.009365746222809956</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>0</v>
@@ -7068,7 +7068,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>7382</v>
+        <v>6704</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.001015461814870521</v>
@@ -7077,7 +7077,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.005618558584889542</v>
+        <v>0.005102812448692908</v>
       </c>
     </row>
     <row r="32">
@@ -7094,19 +7094,19 @@
         <v>7362</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3086</v>
+        <v>2979</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16743</v>
+        <v>16137</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.009134416310505641</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003828785578518305</v>
+        <v>0.003696024372918286</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02077365386603033</v>
+        <v>0.02002144111494291</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>12</v>
@@ -7115,19 +7115,19 @@
         <v>13525</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>7278</v>
+        <v>7174</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>23139</v>
+        <v>23832</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02663108321541892</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01433004104055957</v>
+        <v>0.01412665186620202</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.04556168095932386</v>
+        <v>0.04692689197448771</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>18</v>
@@ -7136,19 +7136,19 @@
         <v>20887</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>12909</v>
+        <v>12450</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>33832</v>
+        <v>33229</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0158976243678754</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.009825491888502808</v>
+        <v>0.00947620436954359</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02575066221598577</v>
+        <v>0.02529163843887925</v>
       </c>
     </row>
     <row r="33">
@@ -7165,19 +7165,19 @@
         <v>4237</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1026</v>
+        <v>1016</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10623</v>
+        <v>9981</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.005256978759807355</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.001272659368093617</v>
+        <v>0.001260860323657065</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01318035838666251</v>
+        <v>0.0123835423299614</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -7189,7 +7189,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>6753</v>
+        <v>5904</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.003819136175455975</v>
@@ -7198,7 +7198,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01329612903300939</v>
+        <v>0.01162517023047457</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>6</v>
@@ -7207,19 +7207,19 @@
         <v>6177</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>2202</v>
+        <v>2451</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>12714</v>
+        <v>13660</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.004701191271563873</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0016763212245243</v>
+        <v>0.001865833173423981</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.009677211997607833</v>
+        <v>0.01039692455333973</v>
       </c>
     </row>
     <row r="34">
@@ -7236,19 +7236,19 @@
         <v>385070</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>356580</v>
+        <v>356062</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>415596</v>
+        <v>411446</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4777605206431861</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4424128722398021</v>
+        <v>0.4417693796350488</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.515634424540436</v>
+        <v>0.5104856332204601</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5504</v>
+        <v>5717</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002153247586777364</v>
@@ -7269,7 +7269,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0108368079726891</v>
+        <v>0.01125679738219053</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>365</v>
@@ -7278,19 +7278,19 @@
         <v>386164</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>352433</v>
+        <v>355473</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>420597</v>
+        <v>421679</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2939180231686819</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2682451560723595</v>
+        <v>0.2705589068175079</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3201263523232775</v>
+        <v>0.3209496648422986</v>
       </c>
     </row>
     <row r="35">
@@ -7307,19 +7307,19 @@
         <v>42226</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>30353</v>
+        <v>31889</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57157</v>
+        <v>57527</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0523898903775384</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.03765916697406707</v>
+        <v>0.03956530677472139</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07091546795833514</v>
+        <v>0.07137433630834487</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>46</v>
@@ -7328,19 +7328,19 @@
         <v>48640</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>36748</v>
+        <v>36632</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>64565</v>
+        <v>62989</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09577497452926834</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0723579412322069</v>
+        <v>0.07213064422835273</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1271327811789535</v>
+        <v>0.1240287543946943</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>85</v>
@@ -7349,19 +7349,19 @@
         <v>90866</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>72270</v>
+        <v>73183</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>110472</v>
+        <v>109615</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06916007593912374</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.05500603534028426</v>
+        <v>0.05570135618356949</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08408305008412359</v>
+        <v>0.08343051321488804</v>
       </c>
     </row>
     <row r="36">
@@ -7381,7 +7381,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6914</v>
+        <v>7074</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.002473947394044458</v>
@@ -7390,7 +7390,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.008578723446482668</v>
+        <v>0.00877714528553131</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -7415,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6761</v>
+        <v>6096</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001517661203089318</v>
@@ -7424,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.005146089931026174</v>
+        <v>0.004639940393270615</v>
       </c>
     </row>
     <row r="37">
@@ -7441,19 +7441,19 @@
         <v>104413</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>86772</v>
+        <v>84805</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>126231</v>
+        <v>125100</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1295466735271639</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1076588963173286</v>
+        <v>0.1052186344683544</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.15661655736246</v>
+        <v>0.155212714393916</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>90</v>
@@ -7462,19 +7462,19 @@
         <v>100007</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>82292</v>
+        <v>81795</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>119363</v>
+        <v>119308</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1969195265832924</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1620369739574418</v>
+        <v>0.1610585049290084</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2350324604278003</v>
+        <v>0.2349236515514737</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>188</v>
@@ -7483,19 +7483,19 @@
         <v>204421</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>177547</v>
+        <v>176941</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>231149</v>
+        <v>234445</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1555891549388231</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1351347362423747</v>
+        <v>0.1346742050026094</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1759331976197361</v>
+        <v>0.1784414607162406</v>
       </c>
     </row>
     <row r="38">
@@ -7512,19 +7512,19 @@
         <v>259353</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>229495</v>
+        <v>231412</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>287970</v>
+        <v>287753</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3217822634196261</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2847363796647354</v>
+        <v>0.2871146293402743</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3572871609498478</v>
+        <v>0.3570177566840089</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>320</v>
@@ -7533,19 +7533,19 @@
         <v>342653</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>319099</v>
+        <v>320969</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>364040</v>
+        <v>364801</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6747020319097869</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6283224665249941</v>
+        <v>0.6320047470566341</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7168153464898392</v>
+        <v>0.7183138985427269</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>556</v>
@@ -7554,19 +7554,19 @@
         <v>602006</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>566561</v>
+        <v>562610</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>641457</v>
+        <v>642743</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4582008072959721</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.4312230044311468</v>
+        <v>0.4282152631314822</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4882280691697056</v>
+        <v>0.4892062330189405</v>
       </c>
     </row>
     <row r="39">
@@ -7661,7 +7661,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4779</v>
+        <v>4760</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.003078081419595063</v>
@@ -7670,7 +7670,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01550476192377758</v>
+        <v>0.01544212920845569</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>4741</v>
+        <v>4779</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.00115762401803778</v>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.005783749644080596</v>
+        <v>0.005830225111901066</v>
       </c>
     </row>
     <row r="41">
@@ -7721,19 +7721,19 @@
         <v>4078</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1051</v>
+        <v>1069</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>9943</v>
+        <v>10023</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01322776776772294</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.00340862985161449</v>
+        <v>0.003468676292558003</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03225747911573954</v>
+        <v>0.03251626896271838</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>11</v>
@@ -7742,19 +7742,19 @@
         <v>12622</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>6554</v>
+        <v>7126</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>22568</v>
+        <v>21589</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02468135890798526</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0128171641540224</v>
+        <v>0.01393518432607981</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0441322820837982</v>
+        <v>0.042216136014555</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>15</v>
@@ -7763,19 +7763,19 @@
         <v>16699</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9601</v>
+        <v>10197</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>26727</v>
+        <v>26934</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.02037382106563128</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.011713517227207</v>
+        <v>0.01244102800984774</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03260818236485984</v>
+        <v>0.03286127613670786</v>
       </c>
     </row>
     <row r="42">
@@ -7792,19 +7792,19 @@
         <v>2859</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8652</v>
+        <v>7650</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.009275650564150119</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.002949259947068276</v>
+        <v>0.002958362546551138</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.02806782092417488</v>
+        <v>0.02481816447304884</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3</v>
@@ -7813,19 +7813,19 @@
         <v>4848</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>13398</v>
+        <v>13738</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.009480618533204782</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.002002507701571318</v>
+        <v>0.001991936901044112</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.02620039513946674</v>
+        <v>0.02686446581464257</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6</v>
@@ -7834,19 +7834,19 @@
         <v>7707</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>2962</v>
+        <v>2880</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>17167</v>
+        <v>15403</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.009403532903696868</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.003613920444485841</v>
+        <v>0.003513490023391664</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.02094507628555176</v>
+        <v>0.01879204125283395</v>
       </c>
     </row>
     <row r="43">
@@ -7863,19 +7863,19 @@
         <v>121363</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>104422</v>
+        <v>103639</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>137675</v>
+        <v>138067</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3937115159779996</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3387530390125899</v>
+        <v>0.3362119001533345</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4466271505833898</v>
+        <v>0.4478994088836946</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -7897,19 +7897,19 @@
         <v>121363</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>102605</v>
+        <v>102154</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>145821</v>
+        <v>141820</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1480694773610493</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1251838815429857</v>
+        <v>0.1246331214728161</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.1779089936990788</v>
+        <v>0.1730282015717081</v>
       </c>
     </row>
     <row r="44">
@@ -7926,19 +7926,19 @@
         <v>30505</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>21029</v>
+        <v>21035</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>42415</v>
+        <v>42908</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0989617513471647</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.0682192536953922</v>
+        <v>0.06824058159858665</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1375965298691653</v>
+        <v>0.1391972966323374</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>131</v>
@@ -7947,19 +7947,19 @@
         <v>139404</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>118906</v>
+        <v>119844</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>159947</v>
+        <v>159614</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.2726024939382322</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2325190137300809</v>
+        <v>0.2343530774813307</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3127733303276382</v>
+        <v>0.3121229087433528</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>160</v>
@@ -7968,19 +7968,19 @@
         <v>169910</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>148731</v>
+        <v>148566</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>194036</v>
+        <v>197013</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2072986027371413</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1814594373796384</v>
+        <v>0.1812586828682129</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2367340398352197</v>
+        <v>0.2403658706508776</v>
       </c>
     </row>
     <row r="45">
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="5" t="n">
-        <v>4235</v>
+        <v>5535</v>
       </c>
       <c r="G45" s="6" t="n">
         <v>0.003376781619793321</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.0137372824780869</v>
+        <v>0.0179558624262891</v>
       </c>
       <c r="J45" s="5" t="n">
         <v>3</v>
@@ -8018,19 +8018,19 @@
         <v>3311</v>
       </c>
       <c r="L45" s="5" t="n">
-        <v>991</v>
+        <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>9390</v>
+        <v>8992</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.006474484258199905</v>
       </c>
       <c r="O45" s="6" t="n">
-        <v>0.001938613624630749</v>
+        <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.01836104608592722</v>
+        <v>0.01758455429716611</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>4</v>
@@ -8039,19 +8039,19 @@
         <v>4352</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>1130</v>
+        <v>1145</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>11070</v>
+        <v>12380</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.005309480970070439</v>
       </c>
       <c r="V45" s="6" t="n">
-        <v>0.001378244415376729</v>
+        <v>0.001396697504609184</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.01350628990162062</v>
+        <v>0.015104107233211</v>
       </c>
     </row>
     <row r="46">
@@ -8068,19 +8068,19 @@
         <v>48381</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>37004</v>
+        <v>35792</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>63009</v>
+        <v>61814</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.1569510299534326</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.12004305379179</v>
+        <v>0.1161126521098493</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2044074829946404</v>
+        <v>0.2005285349844333</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>101</v>
@@ -8089,19 +8089,19 @@
         <v>108558</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>91330</v>
+        <v>90961</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>129033</v>
+        <v>127451</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2122833668158627</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.1785948567289272</v>
+        <v>0.1778730127372824</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2523222854672523</v>
+        <v>0.2492274224633414</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>146</v>
@@ -8110,19 +8110,19 @@
         <v>156939</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>134374</v>
+        <v>135954</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>179856</v>
+        <v>180188</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1914736371841712</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.1639428295111568</v>
+        <v>0.1658709477612967</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2194334323154946</v>
+        <v>0.2198388895234172</v>
       </c>
     </row>
     <row r="47">
@@ -8139,19 +8139,19 @@
         <v>99078</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>83249</v>
+        <v>81768</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>116314</v>
+        <v>116352</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.3214174213501417</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.2700647887825899</v>
+        <v>0.2652625039612555</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.3773310232122373</v>
+        <v>0.3774554408599152</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>221</v>
@@ -8160,19 +8160,19 @@
         <v>242640</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>218410</v>
+        <v>219918</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>266559</v>
+        <v>266877</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.4744776775465152</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.4270969188292268</v>
+        <v>0.4300452480839794</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5212511879071616</v>
+        <v>0.5218740150704015</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>314</v>
@@ -8181,19 +8181,19 @@
         <v>341718</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>313379</v>
+        <v>313551</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>374104</v>
+        <v>369621</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.4169138237602018</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3823390129156666</v>
+        <v>0.3825480888458601</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.4564259305836959</v>
+        <v>0.4509573754168411</v>
       </c>
     </row>
     <row r="48">
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>6577</v>
+        <v>7257</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.003345157364125843</v>
@@ -8310,7 +8310,7 @@
         <v>0</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01060158568093293</v>
+        <v>0.01169700879375224</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>2</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>7258</v>
+        <v>7251</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.003332909131391488</v>
@@ -8331,7 +8331,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01165679741743907</v>
+        <v>0.0116446474571615</v>
       </c>
     </row>
     <row r="50">
@@ -8361,19 +8361,19 @@
         <v>16959</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>9672</v>
+        <v>10495</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>27468</v>
+        <v>28742</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.02733650555415073</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.01559104736413267</v>
+        <v>0.01691744611560408</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.04427551071188435</v>
+        <v>0.04632877527081073</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>15</v>
@@ -8382,19 +8382,19 @@
         <v>16959</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>9692</v>
+        <v>9720</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>27174</v>
+        <v>27442</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.02723641343718131</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.01556493843684354</v>
+        <v>0.01560964499081456</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.04364230893523412</v>
+        <v>0.04407252076928</v>
       </c>
     </row>
     <row r="51">
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>5443</v>
+        <v>5246</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.001671350272217944</v>
@@ -8491,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.008773183649990347</v>
+        <v>0.008455821580927416</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2</v>
@@ -8503,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>7125</v>
+        <v>7416</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.003673222747154912</v>
@@ -8512,7 +8512,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01144199470908469</v>
+        <v>0.01190969559633463</v>
       </c>
     </row>
     <row r="53">
@@ -8542,19 +8542,19 @@
         <v>273849</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>249125</v>
+        <v>249275</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>300361</v>
+        <v>298511</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.4414192136204453</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.40156585506734</v>
+        <v>0.4018079428549797</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.4841544477774933</v>
+        <v>0.4811720208691789</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>255</v>
@@ -8563,19 +8563,19 @@
         <v>273849</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>248222</v>
+        <v>248504</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>298309</v>
+        <v>297928</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.4398029652131744</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.3986462942399986</v>
+        <v>0.3990991969738653</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.4790861527150036</v>
+        <v>0.4784746757602599</v>
       </c>
     </row>
     <row r="54">
@@ -8652,19 +8652,19 @@
         <v>47501</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>34530</v>
+        <v>34772</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>62337</v>
+        <v>61825</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.07656758736035051</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.05565862982755904</v>
+        <v>0.05604877502555353</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.1004815045080754</v>
+        <v>0.09965611877415445</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>45</v>
@@ -8673,19 +8673,19 @@
         <v>47501</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>35433</v>
+        <v>35396</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>61826</v>
+        <v>62032</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.07628723653442078</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.05690537730954771</v>
+        <v>0.0568456560046098</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.09929339466938059</v>
+        <v>0.09962419402829169</v>
       </c>
     </row>
     <row r="56">
@@ -8723,19 +8723,19 @@
         <v>278962</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>252994</v>
+        <v>252924</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>303471</v>
+        <v>304738</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4496601858287097</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.4078025047939057</v>
+        <v>0.4076901326753754</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4891665089486014</v>
+        <v>0.4912092433497033</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>262</v>
@@ -8744,19 +8744,19 @@
         <v>279991</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>256730</v>
+        <v>253496</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>305501</v>
+        <v>306505</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4496672529366771</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.4123091690028701</v>
+        <v>0.4071152405935509</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4906354632492583</v>
+        <v>0.4922486770595082</v>
       </c>
     </row>
     <row r="57">
@@ -8848,19 +8848,19 @@
         <v>6324</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>1335</v>
+        <v>1897</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>15386</v>
+        <v>18161</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.002857795363263976</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.0006034238936828362</v>
+        <v>0.0008570134587363209</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.006952467239437477</v>
+        <v>0.008206611917421468</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>3</v>
@@ -8869,19 +8869,19 @@
         <v>3932</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>11499</v>
+        <v>11494</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.001721381396160679</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.0004377733571979657</v>
+        <v>0.000436427575936653</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.00503390161470833</v>
+        <v>0.005031821535061587</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>7</v>
@@ -8890,19 +8890,19 @@
         <v>10256</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>3860</v>
+        <v>4581</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>20531</v>
+        <v>21282</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.002280570360847897</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.000858366033434429</v>
+        <v>0.001018673268023593</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.004565191458741811</v>
+        <v>0.004732222759238944</v>
       </c>
     </row>
     <row r="59">
@@ -8919,19 +8919,19 @@
         <v>16574</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>9459</v>
+        <v>9327</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>27561</v>
+        <v>28867</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.007489550342201109</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.004274186729666438</v>
+        <v>0.004214685772646739</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.01245437907989638</v>
+        <v>0.01304453871829101</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>48</v>
@@ -8940,19 +8940,19 @@
         <v>56815</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>42835</v>
+        <v>43655</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>75223</v>
+        <v>74563</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.02487142092858428</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.01875163761920158</v>
+        <v>0.01911057228639471</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.03293002903845468</v>
+        <v>0.03264095925722781</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>63</v>
@@ -8961,19 +8961,19 @@
         <v>73389</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>58018</v>
+        <v>56222</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>95036</v>
+        <v>94416</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.01631841955857974</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.0129006216299661</v>
+        <v>0.01250119461644166</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.02113185577302297</v>
+        <v>0.02099387239115424</v>
       </c>
     </row>
     <row r="60">
@@ -8990,19 +8990,19 @@
         <v>21917</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>13828</v>
+        <v>13416</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>34417</v>
+        <v>33665</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.009904054782636026</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.006248611285763616</v>
+        <v>0.006062643660316307</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.01555224744891788</v>
+        <v>0.01521254801831183</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>8</v>
@@ -9011,19 +9011,19 @@
         <v>9686</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>3976</v>
+        <v>3891</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>20547</v>
+        <v>18490</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.004240037611860402</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.001740583240461832</v>
+        <v>0.001703167852405741</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.0089947011824674</v>
+        <v>0.008094388144882798</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>28</v>
@@ -9032,19 +9032,19 @@
         <v>31603</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>20965</v>
+        <v>21578</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>46470</v>
+        <v>46382</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.007027099359939697</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.004661780000100975</v>
+        <v>0.004798035239203591</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.01033276541482577</v>
+        <v>0.01031327893371877</v>
       </c>
     </row>
     <row r="61">
@@ -9061,19 +9061,19 @@
         <v>963451</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>914299</v>
+        <v>914906</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>1009065</v>
+        <v>1012932</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.4353665207672515</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.413155594100915</v>
+        <v>0.4134300927881592</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.4559787934145794</v>
+        <v>0.4577262455536648</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>3</v>
@@ -9082,19 +9082,19 @@
         <v>4039</v>
       </c>
       <c r="L61" s="5" t="n">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>11964</v>
+        <v>11801</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.001768221279484493</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.0004547745373009661</v>
+        <v>0.0004526315059392677</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.005237371298527922</v>
+        <v>0.005166012578219871</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>906</v>
@@ -9103,19 +9103,19 @@
         <v>967490</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>909168</v>
+        <v>913063</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>1019938</v>
+        <v>1028788</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.2151265494939274</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.2021583921094704</v>
+        <v>0.203024539213208</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.2267887113153952</v>
+        <v>0.228756524263562</v>
       </c>
     </row>
     <row r="62">
@@ -9132,19 +9132,19 @@
         <v>124428</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>101270</v>
+        <v>104489</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>150232</v>
+        <v>147913</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.05622695228014151</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.04576214621746504</v>
+        <v>0.04721655847093346</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.06788713797416299</v>
+        <v>0.06683920174083219</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>499</v>
@@ -9153,19 +9153,19 @@
         <v>536511</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>497118</v>
+        <v>497794</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>582405</v>
+        <v>585052</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.2348646857214957</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.2176196700881028</v>
+        <v>0.2179158639697635</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.2549552616113612</v>
+        <v>0.2561140987834697</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>609</v>
@@ -9174,19 +9174,19 @@
         <v>660939</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>608451</v>
+        <v>617889</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>711300</v>
+        <v>719370</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.1469633996507465</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.1352923521505514</v>
+        <v>0.1373908313486029</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.1581613417796931</v>
+        <v>0.1599556526983397</v>
       </c>
     </row>
     <row r="63">
@@ -9203,19 +9203,19 @@
         <v>6819</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>2864</v>
+        <v>2892</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>12769</v>
+        <v>13527</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.003081539689729342</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.001294087258917533</v>
+        <v>0.001306865630302923</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.005770095444742035</v>
+        <v>0.006112627847442633</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>3</v>
@@ -9224,19 +9224,19 @@
         <v>3311</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>9606</v>
+        <v>9178</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.001449407293994317</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.0004333057937727169</v>
+        <v>0.0004350067730646251</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.004205170338923521</v>
+        <v>0.004017789579045059</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>10</v>
@@ -9245,19 +9245,19 @@
         <v>10130</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>5280</v>
+        <v>5071</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>18289</v>
+        <v>17809</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.002252521696864532</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.001174084395268142</v>
+        <v>0.001127603527754886</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.004066725871121477</v>
+        <v>0.003959825282903663</v>
       </c>
     </row>
     <row r="64">
@@ -9274,19 +9274,19 @@
         <v>280759</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>249768</v>
+        <v>252010</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>313625</v>
+        <v>320149</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.1268701117522707</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.1128657665353993</v>
+        <v>0.1138789320026888</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.1417214254408375</v>
+        <v>0.1446695367862486</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>292</v>
@@ -9295,19 +9295,19 @@
         <v>317195</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>286069</v>
+        <v>286427</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>352744</v>
+        <v>354010</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.1388560634861333</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.1252305787159119</v>
+        <v>0.1253870571758981</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.1544181979849472</v>
+        <v>0.1549723932590359</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>552</v>
@@ -9316,19 +9316,19 @@
         <v>597954</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>546771</v>
+        <v>557127</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>642451</v>
+        <v>647611</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.1329582022006601</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.1215775075280368</v>
+        <v>0.1238802554658804</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.1428524220603662</v>
+        <v>0.1439997095659472</v>
       </c>
     </row>
     <row r="65">
@@ -9345,19 +9345,19 @@
         <v>792692</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>746009</v>
+        <v>742751</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>846237</v>
+        <v>836023</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.3582034750225059</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.3371082548974326</v>
+        <v>0.335636019163283</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.382399601711052</v>
+        <v>0.3777842067243294</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>1247</v>
@@ -9366,19 +9366,19 @@
         <v>1352853</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>1303850</v>
+        <v>1300286</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>1401232</v>
+        <v>1402901</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.5922287822822868</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.570777109065028</v>
+        <v>0.5692169397930125</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.6134074174794858</v>
+        <v>0.6141378099293688</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>1980</v>
@@ -9387,19 +9387,19 @@
         <v>2145544</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>2080534</v>
+        <v>2071696</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>2220321</v>
+        <v>2207131</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.4770732376784342</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.4626179042225811</v>
+        <v>0.460652674083283</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.4937002103371594</v>
+        <v>0.4907673249162112</v>
       </c>
     </row>
     <row r="66">
@@ -9736,7 +9736,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9920</v>
+        <v>7507</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.005705468952839013</v>
@@ -9745,7 +9745,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03746978315435417</v>
+        <v>0.02835346082039327</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -9757,7 +9757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5706</v>
+        <v>6783</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005420519754540875</v>
@@ -9766,7 +9766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02668889254220726</v>
+        <v>0.03172842078726174</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -9778,7 +9778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9757</v>
+        <v>8335</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.00557816915646429</v>
@@ -9787,7 +9787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02038997937380018</v>
+        <v>0.0174178017070231</v>
       </c>
     </row>
     <row r="5">
@@ -9804,19 +9804,19 @@
         <v>3188</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9418</v>
+        <v>9565</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01204011778751361</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003833328281522225</v>
+        <v>0.003836332370664287</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03557363710943787</v>
+        <v>0.03612685547433916</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -9838,19 +9838,19 @@
         <v>3188</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>9804</v>
+        <v>8386</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.006661248319439136</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002136797294555931</v>
+        <v>0.00212533212974504</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02048831622868159</v>
+        <v>0.01752357143354792</v>
       </c>
     </row>
     <row r="6">
@@ -9867,19 +9867,19 @@
         <v>3316</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>921</v>
+        <v>936</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8835</v>
+        <v>9455</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01252468906556062</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.003479566262730473</v>
+        <v>0.003534196926720628</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03337248419751569</v>
+        <v>0.03571212675382113</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -9901,19 +9901,19 @@
         <v>3316</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>918</v>
+        <v>920</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9050</v>
+        <v>9470</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.006929339518255026</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.001918846444328087</v>
+        <v>0.001922228690574294</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01891244915082097</v>
+        <v>0.01978919123825248</v>
       </c>
     </row>
     <row r="7">
@@ -9930,19 +9930,19 @@
         <v>92646</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78120</v>
+        <v>77190</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110961</v>
+        <v>108045</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3499347912868762</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2950686381825104</v>
+        <v>0.2915553538265799</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4191140349560932</v>
+        <v>0.4081021651419935</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -9964,19 +9964,19 @@
         <v>92646</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77067</v>
+        <v>77659</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>110495</v>
+        <v>111042</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1936029681362743</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1610467447521498</v>
+        <v>0.1622855188633068</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.230902278341912</v>
+        <v>0.2320449686239763</v>
       </c>
     </row>
     <row r="8">
@@ -9993,19 +9993,19 @@
         <v>12724</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6517</v>
+        <v>6385</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21218</v>
+        <v>22346</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04805987009167446</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02461559141273323</v>
+        <v>0.0241180046560904</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08014246089383201</v>
+        <v>0.08440493135263381</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>20</v>
@@ -10014,19 +10014,19 @@
         <v>22385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>14205</v>
+        <v>14119</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33174</v>
+        <v>33660</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1047077578865979</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06644745988537545</v>
+        <v>0.06604495019747303</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1551765064233887</v>
+        <v>0.1574509618872336</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>32</v>
@@ -10035,19 +10035,19 @@
         <v>35109</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23796</v>
+        <v>24433</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>48874</v>
+        <v>47607</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07336706388067694</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04972617578112647</v>
+        <v>0.05105823142633398</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1021321573331525</v>
+        <v>0.0994848558250755</v>
       </c>
     </row>
     <row r="9">
@@ -10080,7 +10080,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3797</v>
+        <v>5189</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.003951932777756322</v>
@@ -10089,7 +10089,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01776109831440748</v>
+        <v>0.02427397015389489</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1</v>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>4231</v>
+        <v>4237</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.001765508521868538</v>
@@ -10110,7 +10110,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.008841009935797534</v>
+        <v>0.008853601632817404</v>
       </c>
     </row>
     <row r="10">
@@ -10127,19 +10127,19 @@
         <v>23780</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15436</v>
+        <v>15507</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34318</v>
+        <v>34861</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08981858568972403</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05830318991826733</v>
+        <v>0.05857235067787016</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1296236995564164</v>
+        <v>0.131674507483756</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -10148,19 +10148,19 @@
         <v>18630</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11396</v>
+        <v>10368</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28051</v>
+        <v>27363</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0871460921252598</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05330430933810812</v>
+        <v>0.04849996336895684</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1312148189766113</v>
+        <v>0.1279942997172576</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -10169,19 +10169,19 @@
         <v>42410</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31035</v>
+        <v>30962</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>56446</v>
+        <v>56166</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08862466098805459</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06485339788778051</v>
+        <v>0.06470145674778834</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1179555819859431</v>
+        <v>0.1173702331229594</v>
       </c>
     </row>
     <row r="11">
@@ -10198,19 +10198,19 @@
         <v>127588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109108</v>
+        <v>111935</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>143151</v>
+        <v>144405</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4819164771258121</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.4121171834057467</v>
+        <v>0.4227942092146014</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5407004439500038</v>
+        <v>0.5454364326063995</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>167</v>
@@ -10219,19 +10219,19 @@
         <v>170764</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>158581</v>
+        <v>158066</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>181551</v>
+        <v>182214</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.798773697455845</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7417845186366872</v>
+        <v>0.7393767593600533</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8492295445197151</v>
+        <v>0.8523308557248827</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>283</v>
@@ -10240,19 +10240,19 @@
         <v>298353</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>276366</v>
+        <v>277428</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>318590</v>
+        <v>318567</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6234710414789671</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5775255435032114</v>
+        <v>0.5797454413952307</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6657615303182248</v>
+        <v>0.6657138745123934</v>
       </c>
     </row>
     <row r="12">
@@ -10394,7 +10394,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12646</v>
+        <v>10285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.006373947841032075</v>
@@ -10403,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04326722112055431</v>
+        <v>0.03518852000471838</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -10428,7 +10428,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>9266</v>
+        <v>10867</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.003463273550665828</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01722617486883959</v>
+        <v>0.02020159607769925</v>
       </c>
     </row>
     <row r="15">
@@ -10454,19 +10454,19 @@
         <v>3936</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>976</v>
+        <v>1067</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>9936</v>
+        <v>9687</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01346734263396468</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.003337967095815777</v>
+        <v>0.00364912551544586</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03399652021740047</v>
+        <v>0.03314571017901096</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -10478,7 +10478,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>5919</v>
+        <v>4928</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.003974896695453856</v>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02409711554495486</v>
+        <v>0.02006147133808348</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -10496,19 +10496,19 @@
         <v>4912</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1887</v>
+        <v>1927</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>10514</v>
+        <v>11038</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.009132600801273254</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.003508583656077497</v>
+        <v>0.003581921378351094</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.0195460712904084</v>
+        <v>0.02051983303965596</v>
       </c>
     </row>
     <row r="16">
@@ -10525,19 +10525,19 @@
         <v>108062</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>91768</v>
+        <v>91693</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>124749</v>
+        <v>124459</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3697348438158395</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3139825845391153</v>
+        <v>0.3137272918761024</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4268266624798919</v>
+        <v>0.4258345594997018</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6004</v>
+        <v>5475</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.004416163152416747</v>
@@ -10558,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02444185322438223</v>
+        <v>0.02228998612265431</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>105</v>
@@ -10567,19 +10567,19 @@
         <v>109147</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>90492</v>
+        <v>91357</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>127271</v>
+        <v>128045</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2029114373310184</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1682308437537618</v>
+        <v>0.1698381576583769</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2366050512560231</v>
+        <v>0.2380437746244845</v>
       </c>
     </row>
     <row r="17">
@@ -10596,19 +10596,19 @@
         <v>13310</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7051</v>
+        <v>7304</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>22214</v>
+        <v>21705</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0455406170980813</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02412615714939373</v>
+        <v>0.02499111036107815</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07600448471682374</v>
+        <v>0.07426336610586932</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>14</v>
@@ -10617,19 +10617,19 @@
         <v>16487</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9016</v>
+        <v>8811</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>27272</v>
+        <v>26780</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06711940383690106</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03670582008144335</v>
+        <v>0.0358722566047759</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1110251580429977</v>
+        <v>0.1090253149907415</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>27</v>
@@ -10638,19 +10638,19 @@
         <v>29797</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>20528</v>
+        <v>19823</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43281</v>
+        <v>40927</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05539460733214772</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03816211137716501</v>
+        <v>0.0368530848241411</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08046178824906088</v>
+        <v>0.07608622731532437</v>
       </c>
     </row>
     <row r="18">
@@ -10714,19 +10714,19 @@
         <v>41954</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>30245</v>
+        <v>30786</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>55408</v>
+        <v>53903</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1435448538724512</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.103483132156771</v>
+        <v>0.1053356783512965</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1895784669970667</v>
+        <v>0.1844283361875966</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>23</v>
@@ -10735,19 +10735,19 @@
         <v>24459</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16646</v>
+        <v>16483</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>36323</v>
+        <v>36611</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09957386145973797</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06776849472201202</v>
+        <v>0.06710347928606847</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1478743227700563</v>
+        <v>0.1490456530566758</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -10756,19 +10756,19 @@
         <v>66413</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>52410</v>
+        <v>51957</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83655</v>
+        <v>83434</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1234654242427211</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09743430085713002</v>
+        <v>0.09659193556750188</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1555201972979003</v>
+        <v>0.155109621375073</v>
       </c>
     </row>
     <row r="20">
@@ -10785,19 +10785,19 @@
         <v>123145</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>104415</v>
+        <v>106793</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>139435</v>
+        <v>140442</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4213383947386312</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3572565579598951</v>
+        <v>0.3653905543690425</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4770762706675727</v>
+        <v>0.4805205738385799</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>195</v>
@@ -10806,19 +10806,19 @@
         <v>202628</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>189787</v>
+        <v>189255</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>214182</v>
+        <v>214226</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8249156748554903</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7726397398426954</v>
+        <v>0.7704705281692661</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8719541171379667</v>
+        <v>0.8721330007067509</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>307</v>
@@ -10827,19 +10827,19 @@
         <v>325773</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>301895</v>
+        <v>299250</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>349140</v>
+        <v>348418</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6056326567421737</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5612431064062552</v>
+        <v>0.5563257243125176</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6490742718596528</v>
+        <v>0.6477317429172087</v>
       </c>
     </row>
     <row r="21">
@@ -10978,19 +10978,19 @@
         <v>5470</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2069</v>
+        <v>2038</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>12588</v>
+        <v>12868</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01401884611371255</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.005301869988147972</v>
+        <v>0.005223216611154868</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03226090981304516</v>
+        <v>0.03297952895212783</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2</v>
@@ -11002,7 +11002,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8850</v>
+        <v>10057</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02455860015270236</v>
@@ -11011,7 +11011,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08140689593958739</v>
+        <v>0.09251202093216418</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>7</v>
@@ -11020,19 +11020,19 @@
         <v>8140</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3770</v>
+        <v>3366</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>18295</v>
+        <v>17309</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01631545426871128</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.007557142902307129</v>
+        <v>0.00674635746701431</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03667139631476237</v>
+        <v>0.03469439877176636</v>
       </c>
     </row>
     <row r="24">
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4558</v>
+        <v>4528</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002301846813945358</v>
@@ -11061,7 +11061,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01168216033686175</v>
+        <v>0.01160387715540485</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -11086,7 +11086,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4712</v>
+        <v>4485</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001800275321393582</v>
@@ -11095,7 +11095,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.009445302156518884</v>
+        <v>0.008990291860468328</v>
       </c>
     </row>
     <row r="25">
@@ -11112,19 +11112,19 @@
         <v>201399</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>179866</v>
+        <v>180248</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>219668</v>
+        <v>222022</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5161640378347091</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4609773491437018</v>
+        <v>0.461956396366504</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5629844456033719</v>
+        <v>0.5690175815388964</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -11146,19 +11146,19 @@
         <v>201400</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>180185</v>
+        <v>180814</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>225024</v>
+        <v>224229</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4036921021308016</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3611681309520577</v>
+        <v>0.3624300920706583</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4510452033085943</v>
+        <v>0.4494523587803939</v>
       </c>
     </row>
     <row r="26">
@@ -11175,19 +11175,19 @@
         <v>16737</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10128</v>
+        <v>10203</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25618</v>
+        <v>25932</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04289379561447829</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02595807659189347</v>
+        <v>0.02614981288742492</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06565600634007313</v>
+        <v>0.06646069882666276</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -11196,19 +11196,19 @@
         <v>28734</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>19487</v>
+        <v>19746</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>40086</v>
+        <v>39380</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2643216836668699</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1792575932242127</v>
+        <v>0.1816395148282056</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3687416076388166</v>
+        <v>0.3622547519524044</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -11217,19 +11217,19 @@
         <v>45471</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>33358</v>
+        <v>33300</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>61019</v>
+        <v>59748</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09114284313153088</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06686474992456802</v>
+        <v>0.06674856971166074</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1223080725897392</v>
+        <v>0.119760290485607</v>
       </c>
     </row>
     <row r="27">
@@ -11249,7 +11249,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4459</v>
+        <v>4521</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.00227581484113431</v>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01142799910617565</v>
+        <v>0.01158747322743519</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -11283,7 +11283,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>4702</v>
+        <v>4994</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.001779915704960813</v>
@@ -11292,7 +11292,7 @@
         <v>0</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.009425334030778549</v>
+        <v>0.01001109939903939</v>
       </c>
     </row>
     <row r="28">
@@ -11309,19 +11309,19 @@
         <v>62052</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>47140</v>
+        <v>47704</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>78897</v>
+        <v>77588</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1590320865787015</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1208138535164383</v>
+        <v>0.1222603310128977</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.202205065299593</v>
+        <v>0.198848047473848</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -11330,19 +11330,19 @@
         <v>16156</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9798</v>
+        <v>9882</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24460</v>
+        <v>24873</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.148616255122005</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09012741599126295</v>
+        <v>0.0909011795168051</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2250075277415147</v>
+        <v>0.228802184936087</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>71</v>
@@ -11351,19 +11351,19 @@
         <v>78208</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>62667</v>
+        <v>61298</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>96223</v>
+        <v>94952</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1567624811044134</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.12561261557863</v>
+        <v>0.1228673576792077</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1928717040043395</v>
+        <v>0.1903245576427876</v>
       </c>
     </row>
     <row r="29">
@@ -11380,19 +11380,19 @@
         <v>102741</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>85798</v>
+        <v>86155</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>123156</v>
+        <v>122249</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2633135722033188</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2198910611882125</v>
+        <v>0.2208050861027789</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3156359335811857</v>
+        <v>0.3133110457715251</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>60</v>
@@ -11401,19 +11401,19 @@
         <v>61149</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>50775</v>
+        <v>50359</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>72114</v>
+        <v>71579</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.5625034610584227</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.46706958834393</v>
+        <v>0.4632417492467757</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.6633675869287288</v>
+        <v>0.6584443987021188</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>156</v>
@@ -11422,19 +11422,19 @@
         <v>163890</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>140826</v>
+        <v>144318</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>183452</v>
+        <v>186665</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3285069283381884</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2822767226925038</v>
+        <v>0.2892751538286201</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3677183905711482</v>
+        <v>0.3741579250022791</v>
       </c>
     </row>
     <row r="30">
@@ -11526,19 +11526,19 @@
         <v>3024</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9059</v>
+        <v>9249</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.003669270358990272</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.001118919783232507</v>
+        <v>0.001116599231584076</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01099293242577174</v>
+        <v>0.01122343881817937</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>4</v>
@@ -11547,19 +11547,19 @@
         <v>4007</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>971</v>
+        <v>1167</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>9841</v>
+        <v>9772</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.008283105639506409</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.002006371422059801</v>
+        <v>0.002413244910215984</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02034310755466189</v>
+        <v>0.0202011296212736</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -11568,19 +11568,19 @@
         <v>7031</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3003</v>
+        <v>2927</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14157</v>
+        <v>13781</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.005375800149590902</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.002295859399666001</v>
+        <v>0.002237743001062323</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01082504255259136</v>
+        <v>0.01053723803560723</v>
       </c>
     </row>
     <row r="32">
@@ -11597,19 +11597,19 @@
         <v>4661</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1072</v>
+        <v>1226</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>12247</v>
+        <v>11872</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.005655265795237335</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.001300673887480597</v>
+        <v>0.001487892321677547</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01486051079151971</v>
+        <v>0.01440619127917484</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>8</v>
@@ -11618,19 +11618,19 @@
         <v>7685</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>3361</v>
+        <v>3460</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>13718</v>
+        <v>15457</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01588579108873313</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.006948362868327866</v>
+        <v>0.007152094119411101</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02835944863898061</v>
+        <v>0.03195296681478148</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>12</v>
@@ -11639,19 +11639,19 @@
         <v>12345</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>6869</v>
+        <v>6599</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>21628</v>
+        <v>20780</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.009439253546289161</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.005251774505729974</v>
+        <v>0.005045862958359585</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01653682850494085</v>
+        <v>0.01588909813279449</v>
       </c>
     </row>
     <row r="33">
@@ -11668,19 +11668,19 @@
         <v>7090</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>3163</v>
+        <v>3017</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>14622</v>
+        <v>14185</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.00860359619137461</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.003837864418048552</v>
+        <v>0.003661368997765019</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.01774297281871517</v>
+        <v>0.01721223463028728</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>2</v>
@@ -11692,7 +11692,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>8236</v>
+        <v>9375</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.00513455991896581</v>
@@ -11701,7 +11701,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.01702528596104807</v>
+        <v>0.01938015652090511</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>9</v>
@@ -11710,19 +11710,19 @@
         <v>9574</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4663</v>
+        <v>4492</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>17148</v>
+        <v>17580</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.007320495823977549</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.003565453219202901</v>
+        <v>0.003434973507328404</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.01311142671411871</v>
+        <v>0.01344204787479517</v>
       </c>
     </row>
     <row r="34">
@@ -11739,19 +11739,19 @@
         <v>402004</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>374773</v>
+        <v>373257</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>431281</v>
+        <v>431276</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4878047142506451</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4547619310800695</v>
+        <v>0.4529215784973432</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5233302322370663</v>
+        <v>0.5233234640887209</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -11773,19 +11773,19 @@
         <v>402004</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>369107</v>
+        <v>367634</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>436497</v>
+        <v>435925</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3073792707200669</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2822252596850243</v>
+        <v>0.2810991757070111</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3337533966662364</v>
+        <v>0.3333158403144836</v>
       </c>
     </row>
     <row r="35">
@@ -11802,19 +11802,19 @@
         <v>27076</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17837</v>
+        <v>18655</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37818</v>
+        <v>38345</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03285459836923065</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02164349131141485</v>
+        <v>0.02263695443143228</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04588903902292256</v>
+        <v>0.04652901403195066</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>67</v>
@@ -11823,19 +11823,19 @@
         <v>78686</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>63006</v>
+        <v>63240</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>95858</v>
+        <v>99001</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1626644498667753</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1302490122843985</v>
+        <v>0.1307330603039568</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1981617324948893</v>
+        <v>0.2046593271739467</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>96</v>
@@ -11844,19 +11844,19 @@
         <v>105762</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>84730</v>
+        <v>86402</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>127444</v>
+        <v>128438</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08086766455507473</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06478613112055044</v>
+        <v>0.06606448685191339</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09744573759050605</v>
+        <v>0.09820582103696399</v>
       </c>
     </row>
     <row r="36">
@@ -11876,7 +11876,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5051</v>
+        <v>4085</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.001224265360792819</v>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.006128988411018918</v>
+        <v>0.004956632107979371</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>1</v>
@@ -11897,7 +11897,7 @@
         <v>0</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>5609</v>
+        <v>5765</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.002076161769117482</v>
@@ -11906,7 +11906,7 @@
         <v>0</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01159441977997832</v>
+        <v>0.0119166679411121</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>2</v>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6208</v>
+        <v>7068</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.001539358230590521</v>
@@ -11927,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.004746865523994416</v>
+        <v>0.005404219746008787</v>
       </c>
     </row>
     <row r="37">
@@ -11944,19 +11944,19 @@
         <v>123158</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>104502</v>
+        <v>104066</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>146090</v>
+        <v>146259</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1494434200037492</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1268061459541866</v>
+        <v>0.1262767295826562</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1772698823729866</v>
+        <v>0.1774752964505522</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>70</v>
@@ -11965,19 +11965,19 @@
         <v>71935</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>56815</v>
+        <v>57783</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>90098</v>
+        <v>88716</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1487079607057794</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1174505870495622</v>
+        <v>0.1194507474610671</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1862540824271509</v>
+        <v>0.1833982242390768</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>188</v>
@@ -11986,19 +11986,19 @@
         <v>195093</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>168838</v>
+        <v>171336</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>221913</v>
+        <v>222721</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1491713939938351</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1290961726856515</v>
+        <v>0.1310064732331492</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1696783579245497</v>
+        <v>0.1702966062721502</v>
       </c>
     </row>
     <row r="38">
@@ -12015,19 +12015,19 @@
         <v>256088</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>229933</v>
+        <v>230698</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>283866</v>
+        <v>284743</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3107448696699801</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2790085294131642</v>
+        <v>0.2799359782079999</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.344451628476071</v>
+        <v>0.3455155817985271</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>313</v>
@@ -12036,19 +12036,19 @@
         <v>317934</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>297004</v>
+        <v>294627</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>339135</v>
+        <v>338644</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.6572479710111225</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6139801677431154</v>
+        <v>0.6090673957465875</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7010750754268915</v>
+        <v>0.7000611227785803</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>551</v>
@@ -12057,19 +12057,19 @@
         <v>574022</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>537218</v>
+        <v>537601</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>611572</v>
+        <v>611611</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.4389067629805752</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.410766049778657</v>
+        <v>0.4110586773951176</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4676181470902144</v>
+        <v>0.4676484007249054</v>
       </c>
     </row>
     <row r="39">
@@ -12164,7 +12164,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4972</v>
+        <v>4836</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002250019252992163</v>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01352047128619513</v>
+        <v>0.01315125510088252</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -12185,7 +12185,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>5105</v>
+        <v>5875</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002107343710175236</v>
@@ -12194,7 +12194,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01092416901283183</v>
+        <v>0.01257172388481411</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>2</v>
@@ -12206,7 +12206,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5950</v>
+        <v>7067</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002170177610145493</v>
@@ -12215,7 +12215,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.007125560967885373</v>
+        <v>0.008462756802525388</v>
       </c>
     </row>
     <row r="41">
@@ -12235,7 +12235,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>10243</v>
+        <v>10827</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007597312729682215</v>
@@ -12244,7 +12244,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02785200376584983</v>
+        <v>0.02944167601504434</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -12253,19 +12253,19 @@
         <v>6091</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2182</v>
+        <v>2568</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>12219</v>
+        <v>13247</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01303511162203173</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.004670299609697563</v>
+        <v>0.005495305053693888</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02614792798667194</v>
+        <v>0.02834870644055117</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>8</v>
@@ -12274,19 +12274,19 @@
         <v>8885</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>4026</v>
+        <v>3989</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>17926</v>
+        <v>17516</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01064032058136481</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.004821915105978764</v>
+        <v>0.004777029288535899</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02146716854632572</v>
+        <v>0.02097613387236021</v>
       </c>
     </row>
     <row r="42">
@@ -12350,19 +12350,19 @@
         <v>171474</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>153676</v>
+        <v>151717</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>191046</v>
+        <v>192787</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4662793022887851</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4178825702502736</v>
+        <v>0.4125548189348849</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.5194999140307431</v>
+        <v>0.5242347152117466</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1</v>
@@ -12374,7 +12374,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>7193</v>
+        <v>6039</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.002578740721568081</v>
@@ -12383,7 +12383,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.0153925344813981</v>
+        <v>0.01292282326699153</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>169</v>
@@ -12392,19 +12392,19 @@
         <v>172679</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>149874</v>
+        <v>149679</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>197623</v>
+        <v>196868</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.2067911384907676</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1794815404116399</v>
+        <v>0.179248042990306</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2366636263793105</v>
+        <v>0.2357590136898608</v>
       </c>
     </row>
     <row r="44">
@@ -12421,19 +12421,19 @@
         <v>22999</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>15256</v>
+        <v>15388</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>32700</v>
+        <v>34096</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.06254083084748392</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04148510526134989</v>
+        <v>0.04184451087951704</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.08891938060140943</v>
+        <v>0.09271499126722038</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>101</v>
@@ -12442,19 +12442,19 @@
         <v>112742</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>93874</v>
+        <v>95018</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>131815</v>
+        <v>131154</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.241268212743522</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2008902208816998</v>
+        <v>0.2033389104114668</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2820839629562766</v>
+        <v>0.2806698654544142</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>125</v>
@@ -12463,19 +12463,19 @@
         <v>135742</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>115716</v>
+        <v>114592</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>157253</v>
+        <v>159017</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.162557186212426</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1385760033570768</v>
+        <v>0.1372292312167206</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1883187107080469</v>
+        <v>0.1904311198196516</v>
       </c>
     </row>
     <row r="45">
@@ -12508,7 +12508,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="5" t="n">
-        <v>5104</v>
+        <v>6079</v>
       </c>
       <c r="N45" s="6" t="n">
         <v>0.002149227026509812</v>
@@ -12517,7 +12517,7 @@
         <v>0</v>
       </c>
       <c r="P45" s="6" t="n">
-        <v>0.01092272622987401</v>
+        <v>0.01300988685456636</v>
       </c>
       <c r="Q45" s="5" t="n">
         <v>1</v>
@@ -12529,7 +12529,7 @@
         <v>0</v>
       </c>
       <c r="T45" s="5" t="n">
-        <v>5054</v>
+        <v>5050</v>
       </c>
       <c r="U45" s="6" t="n">
         <v>0.001202713606404079</v>
@@ -12538,7 +12538,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="6" t="n">
-        <v>0.006052421145931851</v>
+        <v>0.006047534664040862</v>
       </c>
     </row>
     <row r="46">
@@ -12555,19 +12555,19 @@
         <v>84067</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>68527</v>
+        <v>67544</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>101955</v>
+        <v>102856</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2285980354663248</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.1863416819569528</v>
+        <v>0.1836699274382637</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2772397658596022</v>
+        <v>0.2796897735905349</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>130</v>
@@ -12576,19 +12576,19 @@
         <v>132269</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>112877</v>
+        <v>113236</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>152469</v>
+        <v>153084</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2830560938100811</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2415566408549543</v>
+        <v>0.2423248121532829</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.326282490153998</v>
+        <v>0.3275997335598135</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>209</v>
@@ -12597,19 +12597,19 @@
         <v>216336</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>190942</v>
+        <v>193356</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>241468</v>
+        <v>243576</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2590729210603079</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2286620703743238</v>
+        <v>0.2315529096779912</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2891694667496705</v>
+        <v>0.2916941894359444</v>
       </c>
     </row>
     <row r="47">
@@ -12626,19 +12626,19 @@
         <v>85588</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>70020</v>
+        <v>69107</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>104127</v>
+        <v>101908</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2327344994147318</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.190402363541954</v>
+        <v>0.1879184858341194</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2831477551776335</v>
+        <v>0.2771136526502196</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>210</v>
@@ -12647,19 +12647,19 @@
         <v>212993</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>188351</v>
+        <v>192047</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>236184</v>
+        <v>232116</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.455805270366112</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.4030718035477105</v>
+        <v>0.4109813183109433</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5054327370392849</v>
+        <v>0.4967271159881315</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>285</v>
@@ -12668,19 +12668,19 @@
         <v>298581</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>270354</v>
+        <v>269465</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>326667</v>
+        <v>327147</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3575655424385842</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.3237625151137811</v>
+        <v>0.3226975004607179</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3912001327627492</v>
+        <v>0.3917747249358906</v>
       </c>
     </row>
     <row r="48">
@@ -12785,19 +12785,19 @@
         <v>3091</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>8355</v>
+        <v>8328</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.005071752117922278</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.001499523030887637</v>
+        <v>0.001498184071996312</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.01371006416293764</v>
+        <v>0.01366626004813077</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>3</v>
@@ -12806,19 +12806,19 @@
         <v>3091</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>8409</v>
+        <v>8167</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.004986052957800313</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.001465715331762481</v>
+        <v>0.0014710422655958</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.01356548257593093</v>
+        <v>0.01317632716194594</v>
       </c>
     </row>
     <row r="50">
@@ -12848,19 +12848,19 @@
         <v>6239</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>2112</v>
+        <v>2165</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>13337</v>
+        <v>13370</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01023881098826718</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.003465936871192549</v>
+        <v>0.003552869067314713</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.02188572026275554</v>
+        <v>0.02194085600548459</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>6</v>
@@ -12869,19 +12869,19 @@
         <v>6239</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>2121</v>
+        <v>2093</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>13242</v>
+        <v>12477</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.01006580223666804</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.003421287470220876</v>
+        <v>0.003375987360524587</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02136295372165704</v>
+        <v>0.02012902068679282</v>
       </c>
     </row>
     <row r="51">
@@ -12901,7 +12901,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>5093</v>
+        <v>5822</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1768537009013405</v>
@@ -12910,7 +12910,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.4862821287845894</v>
+        <v>0.5558466298087231</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>2</v>
@@ -12922,7 +12922,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>6563</v>
+        <v>6518</v>
       </c>
       <c r="N51" s="6" t="n">
         <v>0.003064072151585271</v>
@@ -12931,7 +12931,7 @@
         <v>0</v>
       </c>
       <c r="P51" s="6" t="n">
-        <v>0.01077061792483689</v>
+        <v>0.01069563307017314</v>
       </c>
       <c r="Q51" s="5" t="n">
         <v>4</v>
@@ -12940,19 +12940,19 @@
         <v>3720</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>8464</v>
+        <v>9455</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.006000655974192052</v>
       </c>
       <c r="V51" s="6" t="n">
-        <v>0.00152394895089068</v>
+        <v>0.00151817555817266</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.01365416224950811</v>
+        <v>0.01525384697139976</v>
       </c>
     </row>
     <row r="52">
@@ -12972,7 +12972,7 @@
         <v>0</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>4489</v>
+        <v>4558</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.1083387596604196</v>
@@ -12981,7 +12981,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.4285848443950778</v>
+        <v>0.4351326431603729</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>1</v>
@@ -12993,7 +12993,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>4982</v>
+        <v>5412</v>
       </c>
       <c r="N52" s="6" t="n">
         <v>0.001648098134792613</v>
@@ -13002,7 +13002,7 @@
         <v>0</v>
       </c>
       <c r="P52" s="6" t="n">
-        <v>0.008176018640440409</v>
+        <v>0.008880572660356573</v>
       </c>
       <c r="Q52" s="5" t="n">
         <v>2</v>
@@ -13014,7 +13014,7 @@
         <v>0</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>8521</v>
+        <v>7367</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.003450887362857025</v>
@@ -13023,7 +13023,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.01374736366757024</v>
+        <v>0.01188435121430236</v>
       </c>
     </row>
     <row r="53">
@@ -13053,19 +13053,19 @@
         <v>306039</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>278673</v>
+        <v>281181</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>330447</v>
+        <v>333142</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.5022163558257721</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.4573082178665964</v>
+        <v>0.4614240193974089</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.5422694861998774</v>
+        <v>0.5466930582241518</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>268</v>
@@ -13074,19 +13074,19 @@
         <v>306039</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>279634</v>
+        <v>280071</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>329937</v>
+        <v>332241</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.4937302313281468</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.4511313793997021</v>
+        <v>0.451836204355348</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.5322846200607284</v>
+        <v>0.5360022174129871</v>
       </c>
     </row>
     <row r="54">
@@ -13106,7 +13106,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4878</v>
+        <v>3922</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.08575149215035248</v>
@@ -13115,7 +13115,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.4657058602301214</v>
+        <v>0.3744762966060647</v>
       </c>
       <c r="J54" s="5" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>0</v>
       </c>
       <c r="M54" s="5" t="n">
-        <v>5334</v>
+        <v>4983</v>
       </c>
       <c r="N54" s="6" t="n">
         <v>0.001751155468759957</v>
@@ -13136,7 +13136,7 @@
         <v>0</v>
       </c>
       <c r="P54" s="6" t="n">
-        <v>0.008753043478211408</v>
+        <v>0.008176677974925894</v>
       </c>
       <c r="Q54" s="5" t="n">
         <v>2</v>
@@ -13148,7 +13148,7 @@
         <v>0</v>
       </c>
       <c r="T54" s="5" t="n">
-        <v>6939</v>
+        <v>6111</v>
       </c>
       <c r="U54" s="6" t="n">
         <v>0.003170538383420997</v>
@@ -13157,7 +13157,7 @@
         <v>0</v>
       </c>
       <c r="W54" s="6" t="n">
-        <v>0.01119395382351644</v>
+        <v>0.00985863722183857</v>
       </c>
     </row>
     <row r="55">
@@ -13174,19 +13174,19 @@
         <v>3258</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>914</v>
+        <v>936</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>7066</v>
+        <v>6759</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.311071543468981</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.08731135393255168</v>
+        <v>0.08932777510915733</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.6746568313385904</v>
+        <v>0.6452735280143491</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>41</v>
@@ -13195,19 +13195,19 @@
         <v>43887</v>
       </c>
       <c r="L55" s="5" t="n">
-        <v>33390</v>
+        <v>32106</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>58795</v>
+        <v>59215</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.07201894908474013</v>
       </c>
       <c r="O55" s="6" t="n">
-        <v>0.0547942709005039</v>
+        <v>0.05268680363120528</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.09648299231338807</v>
+        <v>0.09717280063367853</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>44</v>
@@ -13216,19 +13216,19 @@
         <v>47145</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>34289</v>
+        <v>35616</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>61002</v>
+        <v>62911</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.07605830394423967</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.05531895778319204</v>
+        <v>0.0574585364449931</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.09841379539534302</v>
+        <v>0.1014931589608682</v>
       </c>
     </row>
     <row r="56">
@@ -13245,19 +13245,19 @@
         <v>3331</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>965</v>
+        <v>933</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>6682</v>
+        <v>6648</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.3179845038189064</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.09209259764867411</v>
+        <v>0.08904685064838458</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.6379340754887706</v>
+        <v>0.6346805132743922</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>235</v>
@@ -13266,19 +13266,19 @@
         <v>246183</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>222058</v>
+        <v>218833</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>272937</v>
+        <v>268541</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.4039908062281605</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.3644016216053397</v>
+        <v>0.3591097541796498</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.4478943405705665</v>
+        <v>0.4406812668042663</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>238</v>
@@ -13287,19 +13287,19 @@
         <v>249513</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>225262</v>
+        <v>225685</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>275616</v>
+        <v>276302</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.4025375278126751</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.3634132352201412</v>
+        <v>0.3640968805476971</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.4446502083407146</v>
+        <v>0.4457556400984279</v>
       </c>
     </row>
     <row r="57">
@@ -13391,19 +13391,19 @@
         <v>5362</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>2018</v>
+        <v>1907</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>12730</v>
+        <v>12639</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.002494420521441157</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.000938894275099412</v>
+        <v>0.0008873246183023683</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.005922284466212522</v>
+        <v>0.00588005400694682</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>9</v>
@@ -13412,19 +13412,19 @@
         <v>9241</v>
       </c>
       <c r="L58" s="5" t="n">
-        <v>4773</v>
+        <v>4047</v>
       </c>
       <c r="M58" s="5" t="n">
-        <v>17662</v>
+        <v>16732</v>
       </c>
       <c r="N58" s="6" t="n">
         <v>0.004341492821533608</v>
       </c>
       <c r="O58" s="6" t="n">
-        <v>0.002242466264741565</v>
+        <v>0.001901260596500982</v>
       </c>
       <c r="P58" s="6" t="n">
-        <v>0.008297967354342576</v>
+        <v>0.007860785310470101</v>
       </c>
       <c r="Q58" s="5" t="n">
         <v>14</v>
@@ -13433,19 +13433,19 @@
         <v>14603</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>8281</v>
+        <v>7970</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>24140</v>
+        <v>24497</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.003413421463337393</v>
       </c>
       <c r="V58" s="6" t="n">
-        <v>0.001935741529705306</v>
+        <v>0.001863062832823833</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.005642779651535626</v>
+        <v>0.005726246239404933</v>
       </c>
     </row>
     <row r="59">
@@ -13462,19 +13462,19 @@
         <v>17975</v>
       </c>
       <c r="E59" s="5" t="n">
-        <v>10251</v>
+        <v>10781</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>29211</v>
+        <v>30585</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.008362241551073585</v>
       </c>
       <c r="H59" s="6" t="n">
-        <v>0.00476892922047652</v>
+        <v>0.005015272763274194</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.01358965110086396</v>
+        <v>0.01422860304880609</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>22</v>
@@ -13483,19 +13483,19 @@
         <v>22685</v>
       </c>
       <c r="L59" s="5" t="n">
-        <v>15065</v>
+        <v>14387</v>
       </c>
       <c r="M59" s="5" t="n">
-        <v>33488</v>
+        <v>34512</v>
       </c>
       <c r="N59" s="6" t="n">
         <v>0.01065746337445607</v>
       </c>
       <c r="O59" s="6" t="n">
-        <v>0.007077810664680387</v>
+        <v>0.006759358021863499</v>
       </c>
       <c r="P59" s="6" t="n">
-        <v>0.01573314353086718</v>
+        <v>0.01621401147509202</v>
       </c>
       <c r="Q59" s="5" t="n">
         <v>37</v>
@@ -13504,19 +13504,19 @@
         <v>40660</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>28923</v>
+        <v>28571</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>55450</v>
+        <v>55420</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.00950421689088228</v>
       </c>
       <c r="V59" s="6" t="n">
-        <v>0.00676068159721668</v>
+        <v>0.006678408423394045</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.01296150816758916</v>
+        <v>0.01295439676916885</v>
       </c>
     </row>
     <row r="60">
@@ -13533,19 +13533,19 @@
         <v>17093</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>10089</v>
+        <v>10253</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>26659</v>
+        <v>26441</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.00795185305435126</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.004693494492051015</v>
+        <v>0.004769742464206645</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.01240201894930468</v>
+        <v>0.01230063051065338</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>5</v>
@@ -13554,19 +13554,19 @@
         <v>5327</v>
       </c>
       <c r="L60" s="5" t="n">
-        <v>1874</v>
+        <v>1893</v>
       </c>
       <c r="M60" s="5" t="n">
-        <v>11256</v>
+        <v>12498</v>
       </c>
       <c r="N60" s="6" t="n">
         <v>0.002502815453069189</v>
       </c>
       <c r="O60" s="6" t="n">
-        <v>0.000880641430441691</v>
+        <v>0.0008892586933906801</v>
       </c>
       <c r="P60" s="6" t="n">
-        <v>0.00528829854785148</v>
+        <v>0.005871753590958824</v>
       </c>
       <c r="Q60" s="5" t="n">
         <v>22</v>
@@ -13575,19 +13575,19 @@
         <v>22420</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>13554</v>
+        <v>14091</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>34083</v>
+        <v>33478</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.005240713545759429</v>
       </c>
       <c r="V60" s="6" t="n">
-        <v>0.003168337786420589</v>
+        <v>0.003293860929675696</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.007966914636503989</v>
+        <v>0.007825384749796823</v>
       </c>
     </row>
     <row r="61">
@@ -13604,19 +13604,19 @@
         <v>976720</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>925260</v>
+        <v>934280</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>1023692</v>
+        <v>1027961</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.4543861146690618</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.4304459946897619</v>
+        <v>0.4346423970490646</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.4762382594363029</v>
+        <v>0.4782242355208067</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>3</v>
@@ -13628,16 +13628,16 @@
         <v>1005</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>9000</v>
+        <v>9808</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.001547593343705639</v>
       </c>
       <c r="O61" s="6" t="n">
-        <v>0.000472031747449045</v>
+        <v>0.0004723295774702042</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.004228412344925513</v>
+        <v>0.004608047010014155</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>949</v>
@@ -13646,19 +13646,19 @@
         <v>980014</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>923986</v>
+        <v>924508</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>1035617</v>
+        <v>1037079</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.2290787308681834</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.2159820952096483</v>
+        <v>0.2161042743907584</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.2420760144601035</v>
+        <v>0.2424176184978135</v>
       </c>
     </row>
     <row r="62">
@@ -13675,19 +13675,19 @@
         <v>92846</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>76441</v>
+        <v>76467</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>113786</v>
+        <v>113458</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.04319331658285921</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.03556183331338696</v>
+        <v>0.03557390229248035</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.05293511069576556</v>
+        <v>0.05278249617692522</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>493</v>
@@ -13696,19 +13696,19 @@
         <v>565073</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>521802</v>
+        <v>522746</v>
       </c>
       <c r="M62" s="5" t="n">
-        <v>607377</v>
+        <v>610420</v>
       </c>
       <c r="N62" s="6" t="n">
         <v>0.265475999231403</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.2451465353693002</v>
+        <v>0.245590186799401</v>
       </c>
       <c r="P62" s="6" t="n">
-        <v>0.2853505225361688</v>
+        <v>0.286780027325229</v>
       </c>
       <c r="Q62" s="5" t="n">
         <v>589</v>
@@ -13717,19 +13717,19 @@
         <v>657919</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>611168</v>
+        <v>610311</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>707312</v>
+        <v>706132</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.1537888762212173</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.1428608667485176</v>
+        <v>0.1426604491761493</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.1653344205869434</v>
+        <v>0.1650587155036331</v>
       </c>
     </row>
     <row r="63">
@@ -13746,19 +13746,19 @@
         <v>2795</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>7585</v>
+        <v>7917</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.001300309133579009</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.0004125200187491604</v>
+        <v>0.0004118662941694862</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.003528694443614009</v>
+        <v>0.003683242314914085</v>
       </c>
       <c r="J63" s="5" t="n">
         <v>4</v>
@@ -13767,19 +13767,19 @@
         <v>3921</v>
       </c>
       <c r="L63" s="5" t="n">
-        <v>1002</v>
+        <v>1066</v>
       </c>
       <c r="M63" s="5" t="n">
-        <v>9572</v>
+        <v>10215</v>
       </c>
       <c r="N63" s="6" t="n">
         <v>0.001841927027087205</v>
       </c>
       <c r="O63" s="6" t="n">
-        <v>0.0004707273952834883</v>
+        <v>0.0005009706164918089</v>
       </c>
       <c r="P63" s="6" t="n">
-        <v>0.004497081597401423</v>
+        <v>0.004798974255368998</v>
       </c>
       <c r="Q63" s="5" t="n">
         <v>7</v>
@@ -13788,19 +13788,19 @@
         <v>6716</v>
       </c>
       <c r="S63" s="5" t="n">
-        <v>2893</v>
+        <v>2795</v>
       </c>
       <c r="T63" s="5" t="n">
-        <v>13044</v>
+        <v>12530</v>
       </c>
       <c r="U63" s="6" t="n">
         <v>0.001569788219079329</v>
       </c>
       <c r="V63" s="6" t="n">
-        <v>0.0006761684960776865</v>
+        <v>0.0006534205823886615</v>
       </c>
       <c r="W63" s="6" t="n">
-        <v>0.003049060046511568</v>
+        <v>0.002928946343622607</v>
       </c>
     </row>
     <row r="64">
@@ -13817,19 +13817,19 @@
         <v>338268</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>302343</v>
+        <v>306090</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>373193</v>
+        <v>378501</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.1573676775092855</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.1406550895957058</v>
+        <v>0.1423982881704553</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.1736156269615539</v>
+        <v>0.1760847177612395</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>298</v>
@@ -13838,19 +13838,19 @@
         <v>307336</v>
       </c>
       <c r="L64" s="5" t="n">
-        <v>274604</v>
+        <v>274692</v>
       </c>
       <c r="M64" s="5" t="n">
-        <v>338952</v>
+        <v>340062</v>
       </c>
       <c r="N64" s="6" t="n">
         <v>0.1443890744304469</v>
       </c>
       <c r="O64" s="6" t="n">
-        <v>0.1290109921826345</v>
+        <v>0.1290523582188477</v>
       </c>
       <c r="P64" s="6" t="n">
-        <v>0.1592421871631117</v>
+        <v>0.1597640888724528</v>
       </c>
       <c r="Q64" s="5" t="n">
         <v>615</v>
@@ -13859,19 +13859,19 @@
         <v>645604</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>594369</v>
+        <v>601752</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>689289</v>
+        <v>696265</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.1509102429771597</v>
       </c>
       <c r="V64" s="6" t="n">
-        <v>0.1389341388578705</v>
+        <v>0.1406597360807687</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.1611216124818087</v>
+        <v>0.1627522070143128</v>
       </c>
     </row>
     <row r="65">
@@ -13888,19 +13888,19 @@
         <v>698479</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>649787</v>
+        <v>655383</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>746330</v>
+        <v>746066</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.3249440669783485</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.3022917845072451</v>
+        <v>0.3048951090666821</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.3472052292905076</v>
+        <v>0.3470820351117546</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>1180</v>
@@ -13909,19 +13909,19 @@
         <v>1211652</v>
       </c>
       <c r="L65" s="5" t="n">
-        <v>1165246</v>
+        <v>1164635</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>1254594</v>
+        <v>1256354</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.5692436343182984</v>
       </c>
       <c r="O65" s="6" t="n">
-        <v>0.5474420662066646</v>
+        <v>0.5471549266293472</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.5894184663442272</v>
+        <v>0.5902450577765301</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>1820</v>
@@ -13930,19 +13930,19 @@
         <v>1910131</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>1845052</v>
+        <v>1846214</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>1982994</v>
+        <v>1977129</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.4464940098143813</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.4312818903617493</v>
+        <v>0.4315534108870298</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.4635257919405221</v>
+        <v>0.4621548230377281</v>
       </c>
     </row>
     <row r="66">
